--- a/BackTest/2020-01-23 BackTest TRV.xlsx
+++ b/BackTest/2020-01-23 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.46</v>
+        <v>12.45</v>
       </c>
       <c r="C2" t="n">
-        <v>12.46</v>
+        <v>12.41</v>
       </c>
       <c r="D2" t="n">
-        <v>12.46</v>
+        <v>12.45</v>
       </c>
       <c r="E2" t="n">
-        <v>12.46</v>
+        <v>12.41</v>
       </c>
       <c r="F2" t="n">
-        <v>97.4555</v>
+        <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>12.31983333333333</v>
+        <v>12.31716666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.43</v>
+        <v>12.46</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3</v>
+        <v>12.46</v>
       </c>
       <c r="D3" t="n">
-        <v>12.43</v>
+        <v>12.46</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>12.46</v>
       </c>
       <c r="F3" t="n">
-        <v>3166.9674</v>
+        <v>97.4555</v>
       </c>
       <c r="G3" t="n">
-        <v>12.31783333333333</v>
+        <v>12.31983333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.29</v>
+        <v>12.43</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D4" t="n">
-        <v>12.29</v>
+        <v>12.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.15</v>
+        <v>12.3</v>
       </c>
       <c r="F4" t="n">
-        <v>93142.8683</v>
+        <v>3166.9674</v>
       </c>
       <c r="G4" t="n">
-        <v>12.31683333333333</v>
+        <v>12.31783333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E5" t="n">
         <v>12.15</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.11</v>
-      </c>
       <c r="F5" t="n">
-        <v>127783.2528</v>
+        <v>93142.8683</v>
       </c>
       <c r="G5" t="n">
-        <v>12.312</v>
+        <v>12.31683333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.12</v>
+        <v>12.15</v>
       </c>
       <c r="C6" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="D6" t="n">
-        <v>12.12</v>
+        <v>12.15</v>
       </c>
       <c r="E6" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="F6" t="n">
-        <v>16064</v>
+        <v>127783.2528</v>
       </c>
       <c r="G6" t="n">
-        <v>12.30716666666666</v>
+        <v>12.312</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="C7" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="D7" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="E7" t="n">
-        <v>12.19</v>
+        <v>12.12</v>
       </c>
       <c r="F7" t="n">
-        <v>44.7667</v>
+        <v>16064</v>
       </c>
       <c r="G7" t="n">
-        <v>12.30383333333333</v>
+        <v>12.30716666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>12.19</v>
       </c>
       <c r="F8" t="n">
-        <v>100.2419</v>
+        <v>44.7667</v>
       </c>
       <c r="G8" t="n">
-        <v>12.30066666666667</v>
+        <v>12.30383333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>12.19</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3</v>
+        <v>12.19</v>
       </c>
       <c r="D9" t="n">
-        <v>12.3</v>
+        <v>12.19</v>
       </c>
       <c r="E9" t="n">
         <v>12.19</v>
       </c>
       <c r="F9" t="n">
-        <v>320</v>
+        <v>100.2419</v>
       </c>
       <c r="G9" t="n">
-        <v>12.29966666666667</v>
+        <v>12.30066666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C10" t="n">
         <v>12.3</v>
       </c>
-      <c r="C10" t="n">
-        <v>12.37</v>
-      </c>
       <c r="D10" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="E10" t="n">
-        <v>12.3</v>
+        <v>12.19</v>
       </c>
       <c r="F10" t="n">
-        <v>4410</v>
+        <v>320</v>
       </c>
       <c r="G10" t="n">
-        <v>12.30133333333333</v>
+        <v>12.29966666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.36</v>
+        <v>12.3</v>
       </c>
       <c r="C11" t="n">
-        <v>12.34</v>
+        <v>12.37</v>
       </c>
       <c r="D11" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="E11" t="n">
-        <v>12.34</v>
+        <v>12.3</v>
       </c>
       <c r="F11" t="n">
-        <v>126</v>
+        <v>4410</v>
       </c>
       <c r="G11" t="n">
-        <v>12.30516666666667</v>
+        <v>12.30133333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="C12" t="n">
-        <v>12.12</v>
+        <v>12.34</v>
       </c>
       <c r="D12" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="E12" t="n">
-        <v>12.12</v>
+        <v>12.34</v>
       </c>
       <c r="F12" t="n">
-        <v>1426.1087</v>
+        <v>126</v>
       </c>
       <c r="G12" t="n">
-        <v>12.30483333333333</v>
+        <v>12.30516666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.34</v>
+        <v>12.33</v>
       </c>
       <c r="C13" t="n">
-        <v>12.34</v>
+        <v>12.12</v>
       </c>
       <c r="D13" t="n">
-        <v>12.34</v>
+        <v>12.33</v>
       </c>
       <c r="E13" t="n">
-        <v>12.34</v>
+        <v>12.12</v>
       </c>
       <c r="F13" t="n">
-        <v>44.4446</v>
+        <v>1426.1087</v>
       </c>
       <c r="G13" t="n">
-        <v>12.30433333333333</v>
+        <v>12.30483333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="C14" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="D14" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="E14" t="n">
-        <v>12.17</v>
+        <v>12.34</v>
       </c>
       <c r="F14" t="n">
-        <v>29550.0549</v>
+        <v>44.4446</v>
       </c>
       <c r="G14" t="n">
-        <v>12.30383333333333</v>
+        <v>12.30433333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2</v>
+        <v>12.17</v>
       </c>
       <c r="C15" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="D15" t="n">
-        <v>12.21</v>
+        <v>12.17</v>
       </c>
       <c r="E15" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="F15" t="n">
-        <v>12525.4488</v>
+        <v>29550.0549</v>
       </c>
       <c r="G15" t="n">
-        <v>12.301</v>
+        <v>12.30383333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.13</v>
+        <v>12.2</v>
       </c>
       <c r="C16" t="n">
         <v>12.13</v>
       </c>
       <c r="D16" t="n">
-        <v>12.13</v>
+        <v>12.21</v>
       </c>
       <c r="E16" t="n">
         <v>12.13</v>
       </c>
       <c r="F16" t="n">
-        <v>2288.7726</v>
+        <v>12525.4488</v>
       </c>
       <c r="G16" t="n">
-        <v>12.29816666666667</v>
+        <v>12.301</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="C17" t="n">
-        <v>12.39</v>
+        <v>12.13</v>
       </c>
       <c r="D17" t="n">
-        <v>12.39</v>
+        <v>12.13</v>
       </c>
       <c r="E17" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="F17" t="n">
-        <v>41850.317</v>
+        <v>2288.7726</v>
       </c>
       <c r="G17" t="n">
-        <v>12.3</v>
+        <v>12.29816666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C18" t="n">
         <v>12.39</v>
       </c>
-      <c r="C18" t="n">
-        <v>12.41</v>
-      </c>
       <c r="D18" t="n">
-        <v>12.41</v>
+        <v>12.39</v>
       </c>
       <c r="E18" t="n">
-        <v>12.39</v>
+        <v>12.19</v>
       </c>
       <c r="F18" t="n">
-        <v>41.9988</v>
+        <v>41850.317</v>
       </c>
       <c r="G18" t="n">
-        <v>12.3015</v>
+        <v>12.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="C19" t="n">
         <v>12.41</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.44</v>
-      </c>
       <c r="D19" t="n">
-        <v>12.44</v>
+        <v>12.41</v>
       </c>
       <c r="E19" t="n">
-        <v>12.41</v>
+        <v>12.39</v>
       </c>
       <c r="F19" t="n">
-        <v>122229.8391</v>
+        <v>41.9988</v>
       </c>
       <c r="G19" t="n">
-        <v>12.3035</v>
+        <v>12.3015</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.45</v>
+        <v>12.41</v>
       </c>
       <c r="C20" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
       <c r="D20" t="n">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="E20" t="n">
-        <v>12.45</v>
+        <v>12.41</v>
       </c>
       <c r="F20" t="n">
-        <v>136.0998</v>
+        <v>122229.8391</v>
       </c>
       <c r="G20" t="n">
-        <v>12.30883333333333</v>
+        <v>12.3035</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.46</v>
+        <v>12.45</v>
       </c>
       <c r="C21" t="n">
         <v>12.46</v>
       </c>
       <c r="D21" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="E21" t="n">
-        <v>12.46</v>
+        <v>12.45</v>
       </c>
       <c r="F21" t="n">
-        <v>724.7537</v>
+        <v>136.0998</v>
       </c>
       <c r="G21" t="n">
-        <v>12.31116666666667</v>
+        <v>12.30883333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>12.46</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="D22" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="E22" t="n">
         <v>12.46</v>
       </c>
       <c r="F22" t="n">
-        <v>115097.3382</v>
+        <v>724.7537</v>
       </c>
       <c r="G22" t="n">
-        <v>12.31416666666667</v>
+        <v>12.31116666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="C23" t="n">
         <v>12.5</v>
@@ -1177,13 +1177,13 @@
         <v>12.5</v>
       </c>
       <c r="E23" t="n">
-        <v>12.5</v>
+        <v>12.46</v>
       </c>
       <c r="F23" t="n">
-        <v>780.4921000000001</v>
+        <v>115097.3382</v>
       </c>
       <c r="G23" t="n">
-        <v>12.317</v>
+        <v>12.31416666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>12.5</v>
       </c>
       <c r="D24" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="E24" t="n">
         <v>12.5</v>
       </c>
       <c r="F24" t="n">
-        <v>82514.2369</v>
+        <v>780.4921000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>12.31966666666666</v>
+        <v>12.317</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>12.5</v>
       </c>
       <c r="D25" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="E25" t="n">
         <v>12.5</v>
       </c>
       <c r="F25" t="n">
-        <v>56</v>
+        <v>82514.2369</v>
       </c>
       <c r="G25" t="n">
-        <v>12.32583333333333</v>
+        <v>12.31966666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="C26" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="D26" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="E26" t="n">
-        <v>12.51</v>
+        <v>12.5</v>
       </c>
       <c r="F26" t="n">
-        <v>211345.7549</v>
+        <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>12.32966666666666</v>
+        <v>12.32583333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="C27" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="D27" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="E27" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="F27" t="n">
-        <v>7293.1247</v>
+        <v>211345.7549</v>
       </c>
       <c r="G27" t="n">
-        <v>12.33483333333333</v>
+        <v>12.32966666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C28" t="n">
         <v>12.6</v>
       </c>
-      <c r="C28" t="n">
-        <v>12.62</v>
-      </c>
       <c r="D28" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.6</v>
+        <v>12.54</v>
       </c>
       <c r="F28" t="n">
-        <v>175815.3055</v>
+        <v>7293.1247</v>
       </c>
       <c r="G28" t="n">
-        <v>12.33933333333333</v>
+        <v>12.33483333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="C29" t="n">
         <v>12.62</v>
@@ -1387,19 +1387,19 @@
         <v>12.62</v>
       </c>
       <c r="E29" t="n">
-        <v>12.62</v>
+        <v>12.6</v>
       </c>
       <c r="F29" t="n">
-        <v>44.4446</v>
+        <v>175815.3055</v>
       </c>
       <c r="G29" t="n">
-        <v>12.3435</v>
+        <v>12.33933333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.63</v>
+        <v>12.62</v>
       </c>
       <c r="C30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="D30" t="n">
-        <v>12.64</v>
+        <v>12.62</v>
       </c>
       <c r="E30" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="F30" t="n">
-        <v>252</v>
+        <v>44.4446</v>
       </c>
       <c r="G30" t="n">
-        <v>12.34733333333333</v>
+        <v>12.3435</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.6</v>
+        <v>12.63</v>
       </c>
       <c r="C31" t="n">
         <v>12.6</v>
       </c>
       <c r="D31" t="n">
-        <v>12.6</v>
+        <v>12.64</v>
       </c>
       <c r="E31" t="n">
         <v>12.6</v>
       </c>
       <c r="F31" t="n">
-        <v>3379.8386</v>
+        <v>252</v>
       </c>
       <c r="G31" t="n">
-        <v>12.35133333333333</v>
+        <v>12.34733333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>12.6</v>
       </c>
       <c r="C32" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="D32" t="n">
         <v>12.6</v>
       </c>
       <c r="E32" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>3379.8386</v>
       </c>
       <c r="G32" t="n">
-        <v>12.355</v>
+        <v>12.35133333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="C33" t="n">
         <v>12.59</v>
       </c>
       <c r="D33" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="E33" t="n">
         <v>12.59</v>
       </c>
       <c r="F33" t="n">
-        <v>4240.4444</v>
+        <v>80</v>
       </c>
       <c r="G33" t="n">
-        <v>12.36233333333333</v>
+        <v>12.355</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1565,16 +1565,16 @@
         <v>12.59</v>
       </c>
       <c r="F34" t="n">
-        <v>918.4226</v>
+        <v>4240.4444</v>
       </c>
       <c r="G34" t="n">
-        <v>12.36616666666667</v>
+        <v>12.36233333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="C35" t="n">
-        <v>12.64</v>
+        <v>12.59</v>
       </c>
       <c r="D35" t="n">
-        <v>12.64</v>
+        <v>12.59</v>
       </c>
       <c r="E35" t="n">
-        <v>12.61</v>
+        <v>12.59</v>
       </c>
       <c r="F35" t="n">
-        <v>864.9448</v>
+        <v>918.4226</v>
       </c>
       <c r="G35" t="n">
-        <v>12.37083333333333</v>
+        <v>12.36616666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.63</v>
+        <v>12.61</v>
       </c>
       <c r="C36" t="n">
-        <v>12.63</v>
+        <v>12.64</v>
       </c>
       <c r="D36" t="n">
-        <v>12.63</v>
+        <v>12.64</v>
       </c>
       <c r="E36" t="n">
-        <v>12.63</v>
+        <v>12.61</v>
       </c>
       <c r="F36" t="n">
-        <v>349.0448</v>
+        <v>864.9448</v>
       </c>
       <c r="G36" t="n">
-        <v>12.37533333333333</v>
+        <v>12.37083333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.62</v>
+        <v>12.63</v>
       </c>
       <c r="C37" t="n">
-        <v>12.62</v>
+        <v>12.63</v>
       </c>
       <c r="D37" t="n">
-        <v>12.62</v>
+        <v>12.63</v>
       </c>
       <c r="E37" t="n">
-        <v>12.62</v>
+        <v>12.63</v>
       </c>
       <c r="F37" t="n">
-        <v>48</v>
+        <v>349.0448</v>
       </c>
       <c r="G37" t="n">
-        <v>12.37966666666667</v>
+        <v>12.37533333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>12.62</v>
       </c>
       <c r="F38" t="n">
-        <v>150.0896</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>12.384</v>
+        <v>12.37966666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.61</v>
+        <v>12.62</v>
       </c>
       <c r="C39" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="D39" t="n">
-        <v>12.61</v>
+        <v>12.62</v>
       </c>
       <c r="E39" t="n">
-        <v>12.6</v>
+        <v>12.62</v>
       </c>
       <c r="F39" t="n">
-        <v>80</v>
+        <v>150.0896</v>
       </c>
       <c r="G39" t="n">
-        <v>12.38783333333333</v>
+        <v>12.384</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.59</v>
+        <v>12.61</v>
       </c>
       <c r="C40" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="D40" t="n">
-        <v>12.59</v>
+        <v>12.61</v>
       </c>
       <c r="E40" t="n">
-        <v>12.59</v>
+        <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>12.39216666666667</v>
+        <v>12.38783333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="C41" t="n">
-        <v>12.33</v>
+        <v>12.59</v>
       </c>
       <c r="D41" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="E41" t="n">
-        <v>12.33</v>
+        <v>12.59</v>
       </c>
       <c r="F41" t="n">
-        <v>18119.8811</v>
+        <v>42</v>
       </c>
       <c r="G41" t="n">
-        <v>12.39233333333333</v>
+        <v>12.39216666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.32</v>
+        <v>12.58</v>
       </c>
       <c r="C42" t="n">
-        <v>12.59</v>
+        <v>12.33</v>
       </c>
       <c r="D42" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="E42" t="n">
-        <v>12.31</v>
+        <v>12.33</v>
       </c>
       <c r="F42" t="n">
-        <v>41816.2129</v>
+        <v>18119.8811</v>
       </c>
       <c r="G42" t="n">
-        <v>12.39683333333333</v>
+        <v>12.39233333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.59</v>
+        <v>12.32</v>
       </c>
       <c r="C43" t="n">
         <v>12.59</v>
@@ -1877,13 +1877,13 @@
         <v>12.59</v>
       </c>
       <c r="E43" t="n">
-        <v>12.59</v>
+        <v>12.31</v>
       </c>
       <c r="F43" t="n">
-        <v>4027.0003</v>
+        <v>41816.2129</v>
       </c>
       <c r="G43" t="n">
-        <v>12.40133333333333</v>
+        <v>12.39683333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>12.59</v>
       </c>
       <c r="C44" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="D44" t="n">
         <v>12.59</v>
       </c>
       <c r="E44" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="F44" t="n">
-        <v>1000</v>
+        <v>4027.0003</v>
       </c>
       <c r="G44" t="n">
-        <v>12.40583333333333</v>
+        <v>12.40133333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.57</v>
+        <v>12.59</v>
       </c>
       <c r="C45" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="D45" t="n">
         <v>12.59</v>
       </c>
       <c r="E45" t="n">
-        <v>12.57</v>
+        <v>12.58</v>
       </c>
       <c r="F45" t="n">
-        <v>652</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>12.41083333333333</v>
+        <v>12.40583333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="C46" t="n">
         <v>12.59</v>
@@ -1982,13 +1982,13 @@
         <v>12.59</v>
       </c>
       <c r="E46" t="n">
-        <v>12.59</v>
+        <v>12.57</v>
       </c>
       <c r="F46" t="n">
-        <v>94.1169</v>
+        <v>652</v>
       </c>
       <c r="G46" t="n">
-        <v>12.41616666666667</v>
+        <v>12.41083333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="C47" t="n">
-        <v>12.4</v>
+        <v>12.59</v>
       </c>
       <c r="D47" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="E47" t="n">
-        <v>12.4</v>
+        <v>12.59</v>
       </c>
       <c r="F47" t="n">
-        <v>3816.8353</v>
+        <v>94.1169</v>
       </c>
       <c r="G47" t="n">
-        <v>12.4195</v>
+        <v>12.41616666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5</v>
+        <v>12.58</v>
       </c>
       <c r="C48" t="n">
-        <v>12.59</v>
+        <v>12.4</v>
       </c>
       <c r="D48" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="E48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F48" t="n">
-        <v>12918.8353</v>
+        <v>3816.8353</v>
       </c>
       <c r="G48" t="n">
-        <v>12.42666666666667</v>
+        <v>12.4195</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.58</v>
+        <v>12.5</v>
       </c>
       <c r="C49" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="D49" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="E49" t="n">
-        <v>12.58</v>
+        <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>41</v>
+        <v>12918.8353</v>
       </c>
       <c r="G49" t="n">
-        <v>12.43366666666667</v>
+        <v>12.42666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>12.58</v>
       </c>
       <c r="C50" t="n">
-        <v>12.55</v>
+        <v>12.58</v>
       </c>
       <c r="D50" t="n">
-        <v>12.59</v>
+        <v>12.58</v>
       </c>
       <c r="E50" t="n">
-        <v>12.55</v>
+        <v>12.58</v>
       </c>
       <c r="F50" t="n">
-        <v>1971</v>
+        <v>41</v>
       </c>
       <c r="G50" t="n">
-        <v>12.4385</v>
+        <v>12.43366666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.54</v>
+        <v>12.58</v>
       </c>
       <c r="C51" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="D51" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="E51" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="F51" t="n">
-        <v>45</v>
+        <v>1971</v>
       </c>
       <c r="G51" t="n">
-        <v>12.44233333333334</v>
+        <v>12.4385</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="C52" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="D52" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="E52" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="F52" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" t="n">
-        <v>12.44516666666667</v>
+        <v>12.44233333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.56</v>
+        <v>12.53</v>
       </c>
       <c r="C53" t="n">
-        <v>12.57</v>
+        <v>12.53</v>
       </c>
       <c r="D53" t="n">
-        <v>12.57</v>
+        <v>12.53</v>
       </c>
       <c r="E53" t="n">
-        <v>12.56</v>
+        <v>12.53</v>
       </c>
       <c r="F53" t="n">
-        <v>44.4446</v>
+        <v>46</v>
       </c>
       <c r="G53" t="n">
-        <v>12.44866666666667</v>
+        <v>12.44516666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.58</v>
+        <v>12.56</v>
       </c>
       <c r="C54" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="D54" t="n">
-        <v>12.6</v>
+        <v>12.57</v>
       </c>
       <c r="E54" t="n">
         <v>12.56</v>
       </c>
       <c r="F54" t="n">
-        <v>338.4446</v>
+        <v>44.4446</v>
       </c>
       <c r="G54" t="n">
-        <v>12.45333333333334</v>
+        <v>12.44866666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.55</v>
+        <v>12.58</v>
       </c>
       <c r="C55" t="n">
-        <v>12.29</v>
+        <v>12.56</v>
       </c>
       <c r="D55" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="E55" t="n">
-        <v>12.29</v>
+        <v>12.56</v>
       </c>
       <c r="F55" t="n">
-        <v>8038.8954</v>
+        <v>338.4446</v>
       </c>
       <c r="G55" t="n">
-        <v>12.4515</v>
+        <v>12.45333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.28</v>
+        <v>12.55</v>
       </c>
       <c r="C56" t="n">
         <v>12.29</v>
       </c>
       <c r="D56" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="E56" t="n">
         <v>12.29</v>
       </c>
-      <c r="E56" t="n">
-        <v>12.14</v>
-      </c>
       <c r="F56" t="n">
-        <v>3333.0421</v>
+        <v>8038.8954</v>
       </c>
       <c r="G56" t="n">
-        <v>12.44866666666667</v>
+        <v>12.4515</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.15</v>
+        <v>12.28</v>
       </c>
       <c r="C57" t="n">
-        <v>12.25</v>
+        <v>12.29</v>
       </c>
       <c r="D57" t="n">
-        <v>12.25</v>
+        <v>12.29</v>
       </c>
       <c r="E57" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="F57" t="n">
-        <v>896.7161</v>
+        <v>3333.0421</v>
       </c>
       <c r="G57" t="n">
-        <v>12.44583333333333</v>
+        <v>12.44866666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.26</v>
+        <v>12.15</v>
       </c>
       <c r="C58" t="n">
-        <v>12.28</v>
+        <v>12.25</v>
       </c>
       <c r="D58" t="n">
-        <v>12.28</v>
+        <v>12.25</v>
       </c>
       <c r="E58" t="n">
-        <v>12.26</v>
+        <v>12.15</v>
       </c>
       <c r="F58" t="n">
-        <v>126</v>
+        <v>896.7161</v>
       </c>
       <c r="G58" t="n">
-        <v>12.44516666666667</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.47</v>
+        <v>12.26</v>
       </c>
       <c r="C59" t="n">
-        <v>12.51</v>
+        <v>12.28</v>
       </c>
       <c r="D59" t="n">
-        <v>12.51</v>
+        <v>12.28</v>
       </c>
       <c r="E59" t="n">
-        <v>12.47</v>
+        <v>12.26</v>
       </c>
       <c r="F59" t="n">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="G59" t="n">
-        <v>12.44583333333333</v>
+        <v>12.44516666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.52</v>
+        <v>12.47</v>
       </c>
       <c r="C60" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="D60" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="E60" t="n">
-        <v>12.52</v>
+        <v>12.47</v>
       </c>
       <c r="F60" t="n">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="G60" t="n">
-        <v>12.448</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.59</v>
+        <v>12.52</v>
       </c>
       <c r="C61" t="n">
         <v>12.59</v>
@@ -2507,13 +2507,13 @@
         <v>12.59</v>
       </c>
       <c r="E61" t="n">
-        <v>12.59</v>
+        <v>12.52</v>
       </c>
       <c r="F61" t="n">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="G61" t="n">
-        <v>12.451</v>
+        <v>12.448</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="C62" t="n">
-        <v>12.57</v>
+        <v>12.59</v>
       </c>
       <c r="D62" t="n">
-        <v>12.58</v>
+        <v>12.59</v>
       </c>
       <c r="E62" t="n">
-        <v>12.57</v>
+        <v>12.59</v>
       </c>
       <c r="F62" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G62" t="n">
-        <v>12.45283333333333</v>
+        <v>12.451</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.56</v>
+        <v>12.58</v>
       </c>
       <c r="C63" t="n">
-        <v>12.39</v>
+        <v>12.57</v>
       </c>
       <c r="D63" t="n">
-        <v>12.56</v>
+        <v>12.58</v>
       </c>
       <c r="E63" t="n">
-        <v>12.39</v>
+        <v>12.57</v>
       </c>
       <c r="F63" t="n">
-        <v>92259.164</v>
+        <v>84</v>
       </c>
       <c r="G63" t="n">
-        <v>12.45433333333333</v>
+        <v>12.45283333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="C64" t="n">
-        <v>12.57</v>
+        <v>12.39</v>
       </c>
       <c r="D64" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="E64" t="n">
-        <v>12.57</v>
+        <v>12.39</v>
       </c>
       <c r="F64" t="n">
-        <v>42</v>
+        <v>92259.164</v>
       </c>
       <c r="G64" t="n">
-        <v>12.4605</v>
+        <v>12.45433333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="C65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="D65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="E65" t="n">
-        <v>12.56</v>
+        <v>12.57</v>
       </c>
       <c r="F65" t="n">
         <v>42</v>
       </c>
       <c r="G65" t="n">
-        <v>12.468</v>
+        <v>12.4605</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="C66" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="D66" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="E66" t="n">
-        <v>12.55</v>
+        <v>12.56</v>
       </c>
       <c r="F66" t="n">
         <v>42</v>
       </c>
       <c r="G66" t="n">
-        <v>12.47516666666667</v>
+        <v>12.468</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="C67" t="n">
-        <v>12.5</v>
+        <v>12.55</v>
       </c>
       <c r="D67" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="E67" t="n">
-        <v>12.15</v>
+        <v>12.55</v>
       </c>
       <c r="F67" t="n">
-        <v>91474.87880000001</v>
+        <v>42</v>
       </c>
       <c r="G67" t="n">
-        <v>12.48033333333333</v>
+        <v>12.47516666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.3</v>
+        <v>12.54</v>
       </c>
       <c r="C68" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D68" t="n">
-        <v>12.3</v>
+        <v>12.54</v>
       </c>
       <c r="E68" t="n">
-        <v>12.3</v>
+        <v>12.15</v>
       </c>
       <c r="F68" t="n">
-        <v>3225</v>
+        <v>91474.87880000001</v>
       </c>
       <c r="G68" t="n">
-        <v>12.48216666666666</v>
+        <v>12.48033333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.56</v>
+        <v>12.3</v>
       </c>
       <c r="C69" t="n">
-        <v>12.56</v>
+        <v>12.3</v>
       </c>
       <c r="D69" t="n">
-        <v>12.56</v>
+        <v>12.3</v>
       </c>
       <c r="E69" t="n">
-        <v>12.56</v>
+        <v>12.3</v>
       </c>
       <c r="F69" t="n">
-        <v>42</v>
+        <v>3225</v>
       </c>
       <c r="G69" t="n">
-        <v>12.4865</v>
+        <v>12.48216666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.43</v>
+        <v>12.56</v>
       </c>
       <c r="C70" t="n">
-        <v>12.41</v>
+        <v>12.56</v>
       </c>
       <c r="D70" t="n">
-        <v>12.43</v>
+        <v>12.56</v>
       </c>
       <c r="E70" t="n">
-        <v>12.41</v>
+        <v>12.56</v>
       </c>
       <c r="F70" t="n">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="G70" t="n">
-        <v>12.48716666666666</v>
+        <v>12.4865</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C71" t="n">
         <v>12.41</v>
       </c>
-      <c r="C71" t="n">
-        <v>12.56</v>
-      </c>
       <c r="D71" t="n">
-        <v>12.56</v>
+        <v>12.43</v>
       </c>
       <c r="E71" t="n">
         <v>12.41</v>
       </c>
       <c r="F71" t="n">
-        <v>8733.479499999999</v>
+        <v>168</v>
       </c>
       <c r="G71" t="n">
-        <v>12.49083333333333</v>
+        <v>12.48716666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C72" t="n">
         <v>12.56</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12.51</v>
       </c>
       <c r="D72" t="n">
         <v>12.56</v>
       </c>
       <c r="E72" t="n">
-        <v>12.51</v>
+        <v>12.41</v>
       </c>
       <c r="F72" t="n">
-        <v>233.9864</v>
+        <v>8733.479499999999</v>
       </c>
       <c r="G72" t="n">
-        <v>12.49733333333333</v>
+        <v>12.49083333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.57</v>
+        <v>12.56</v>
       </c>
       <c r="C73" t="n">
-        <v>12.59</v>
+        <v>12.51</v>
       </c>
       <c r="D73" t="n">
-        <v>12.6</v>
+        <v>12.56</v>
       </c>
       <c r="E73" t="n">
-        <v>12.57</v>
+        <v>12.51</v>
       </c>
       <c r="F73" t="n">
-        <v>207</v>
+        <v>233.9864</v>
       </c>
       <c r="G73" t="n">
-        <v>12.50149999999999</v>
+        <v>12.49733333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.58</v>
+        <v>12.57</v>
       </c>
       <c r="C74" t="n">
-        <v>12.54</v>
+        <v>12.59</v>
       </c>
       <c r="D74" t="n">
-        <v>12.58</v>
+        <v>12.6</v>
       </c>
       <c r="E74" t="n">
-        <v>12.54</v>
+        <v>12.57</v>
       </c>
       <c r="F74" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G74" t="n">
-        <v>12.50766666666666</v>
+        <v>12.50149999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.53</v>
+        <v>12.58</v>
       </c>
       <c r="C75" t="n">
-        <v>12.39</v>
+        <v>12.54</v>
       </c>
       <c r="D75" t="n">
-        <v>12.53</v>
+        <v>12.58</v>
       </c>
       <c r="E75" t="n">
-        <v>12.39</v>
+        <v>12.54</v>
       </c>
       <c r="F75" t="n">
-        <v>612.5341</v>
+        <v>222</v>
       </c>
       <c r="G75" t="n">
-        <v>12.512</v>
+        <v>12.50766666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="C76" t="n">
-        <v>12.6</v>
+        <v>12.39</v>
       </c>
       <c r="D76" t="n">
-        <v>12.6</v>
+        <v>12.53</v>
       </c>
       <c r="E76" t="n">
-        <v>12.6</v>
+        <v>12.39</v>
       </c>
       <c r="F76" t="n">
-        <v>40</v>
+        <v>612.5341</v>
       </c>
       <c r="G76" t="n">
-        <v>12.51983333333333</v>
+        <v>12.512</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="C77" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D77" t="n">
-        <v>12.54</v>
+        <v>12.6</v>
       </c>
       <c r="E77" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F77" t="n">
-        <v>631</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>12.51999999999999</v>
+        <v>12.51983333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.39</v>
+        <v>12.54</v>
       </c>
       <c r="C78" t="n">
-        <v>12.55</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>12.55</v>
+        <v>12.54</v>
       </c>
       <c r="E78" t="n">
-        <v>12.16</v>
+        <v>12.4</v>
       </c>
       <c r="F78" t="n">
-        <v>16584</v>
+        <v>631</v>
       </c>
       <c r="G78" t="n">
-        <v>12.52233333333333</v>
+        <v>12.51999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.5</v>
+        <v>12.39</v>
       </c>
       <c r="C79" t="n">
-        <v>12.5</v>
+        <v>12.55</v>
       </c>
       <c r="D79" t="n">
-        <v>12.5</v>
+        <v>12.55</v>
       </c>
       <c r="E79" t="n">
-        <v>12.5</v>
+        <v>12.16</v>
       </c>
       <c r="F79" t="n">
-        <v>42</v>
+        <v>16584</v>
       </c>
       <c r="G79" t="n">
-        <v>12.52333333333333</v>
+        <v>12.52233333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="C80" t="n">
         <v>12.5</v>
@@ -3172,13 +3172,13 @@
         <v>12.5</v>
       </c>
       <c r="E80" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2006.9701</v>
+        <v>42</v>
       </c>
       <c r="G80" t="n">
-        <v>12.52399999999999</v>
+        <v>12.52333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.55</v>
+        <v>12.49</v>
       </c>
       <c r="C81" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D81" t="n">
-        <v>12.55</v>
+        <v>12.5</v>
       </c>
       <c r="E81" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="F81" t="n">
-        <v>682.0299</v>
+        <v>2006.9701</v>
       </c>
       <c r="G81" t="n">
-        <v>12.52299999999999</v>
+        <v>12.52399999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="C82" t="n">
         <v>12.4</v>
       </c>
       <c r="D82" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="E82" t="n">
         <v>12.4</v>
       </c>
       <c r="F82" t="n">
-        <v>11880.5687</v>
+        <v>682.0299</v>
       </c>
       <c r="G82" t="n">
-        <v>12.52133333333333</v>
+        <v>12.52299999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,16 +3271,16 @@
         <v>12.4</v>
       </c>
       <c r="C83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D83" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E83" t="n">
         <v>12.4</v>
       </c>
       <c r="F83" t="n">
-        <v>2800</v>
+        <v>11880.5687</v>
       </c>
       <c r="G83" t="n">
         <v>12.52133333333333</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="D84" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E84" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>11880.5687</v>
+        <v>2800</v>
       </c>
       <c r="G84" t="n">
-        <v>12.52116666666666</v>
+        <v>12.52133333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>12.49</v>
       </c>
       <c r="F85" t="n">
-        <v>42</v>
+        <v>11880.5687</v>
       </c>
       <c r="G85" t="n">
-        <v>12.52099999999999</v>
+        <v>12.52116666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
       <c r="C86" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
       <c r="D86" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
       <c r="E86" t="n">
-        <v>12.48</v>
+        <v>12.49</v>
       </c>
       <c r="F86" t="n">
         <v>42</v>
       </c>
       <c r="G86" t="n">
-        <v>12.52016666666666</v>
+        <v>12.52099999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="C87" t="n">
-        <v>12.4</v>
+        <v>12.48</v>
       </c>
       <c r="D87" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="E87" t="n">
-        <v>12.4</v>
+        <v>12.48</v>
       </c>
       <c r="F87" t="n">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="G87" t="n">
-        <v>12.51683333333333</v>
+        <v>12.52016666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C88" t="n">
         <v>12.4</v>
       </c>
-      <c r="C88" t="n">
-        <v>12.49</v>
-      </c>
       <c r="D88" t="n">
-        <v>12.49</v>
+        <v>12.47</v>
       </c>
       <c r="E88" t="n">
         <v>12.4</v>
       </c>
       <c r="F88" t="n">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="G88" t="n">
-        <v>12.51466666666666</v>
+        <v>12.51683333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>12.4</v>
       </c>
       <c r="C89" t="n">
-        <v>12.17</v>
+        <v>12.49</v>
       </c>
       <c r="D89" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E89" t="n">
         <v>12.4</v>
       </c>
-      <c r="E89" t="n">
-        <v>12.17</v>
-      </c>
       <c r="F89" t="n">
-        <v>9214.272199999999</v>
+        <v>203</v>
       </c>
       <c r="G89" t="n">
-        <v>12.50716666666666</v>
+        <v>12.51466666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="C90" t="n">
-        <v>12.31</v>
+        <v>12.17</v>
       </c>
       <c r="D90" t="n">
-        <v>12.49</v>
+        <v>12.4</v>
       </c>
       <c r="E90" t="n">
-        <v>12.31</v>
+        <v>12.17</v>
       </c>
       <c r="F90" t="n">
-        <v>37506.4002</v>
+        <v>9214.272199999999</v>
       </c>
       <c r="G90" t="n">
-        <v>12.50233333333332</v>
+        <v>12.50716666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.47</v>
+        <v>12.49</v>
       </c>
       <c r="C91" t="n">
-        <v>12.47</v>
+        <v>12.31</v>
       </c>
       <c r="D91" t="n">
-        <v>12.47</v>
+        <v>12.49</v>
       </c>
       <c r="E91" t="n">
-        <v>12.47</v>
+        <v>12.31</v>
       </c>
       <c r="F91" t="n">
-        <v>42</v>
+        <v>37506.4002</v>
       </c>
       <c r="G91" t="n">
-        <v>12.50016666666666</v>
+        <v>12.50233333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="C92" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="D92" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="E92" t="n">
-        <v>12.3</v>
+        <v>12.47</v>
       </c>
       <c r="F92" t="n">
-        <v>2167.8614</v>
+        <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>12.49533333333332</v>
+        <v>12.50016666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.21</v>
+        <v>12.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D93" t="n">
-        <v>12.21</v>
+        <v>12.3</v>
       </c>
       <c r="E93" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F93" t="n">
-        <v>32162.7181</v>
+        <v>2167.8614</v>
       </c>
       <c r="G93" t="n">
-        <v>12.48883333333332</v>
+        <v>12.49533333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.19</v>
+        <v>12.21</v>
       </c>
       <c r="C94" t="n">
-        <v>12.13</v>
+        <v>12.2</v>
       </c>
       <c r="D94" t="n">
-        <v>12.19</v>
+        <v>12.21</v>
       </c>
       <c r="E94" t="n">
-        <v>12.13</v>
+        <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>148133.5191</v>
+        <v>32162.7181</v>
       </c>
       <c r="G94" t="n">
-        <v>12.48116666666666</v>
+        <v>12.48883333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.13</v>
+        <v>12.19</v>
       </c>
       <c r="C95" t="n">
         <v>12.13</v>
       </c>
       <c r="D95" t="n">
-        <v>12.13</v>
+        <v>12.19</v>
       </c>
       <c r="E95" t="n">
         <v>12.13</v>
       </c>
       <c r="F95" t="n">
-        <v>17651.1193</v>
+        <v>148133.5191</v>
       </c>
       <c r="G95" t="n">
-        <v>12.47266666666666</v>
+        <v>12.48116666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="C96" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="D96" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="E96" t="n">
-        <v>12.19</v>
+        <v>12.13</v>
       </c>
       <c r="F96" t="n">
-        <v>44.4446</v>
+        <v>17651.1193</v>
       </c>
       <c r="G96" t="n">
-        <v>12.46533333333332</v>
+        <v>12.47266666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>12.19</v>
       </c>
       <c r="C97" t="n">
-        <v>12.39</v>
+        <v>12.19</v>
       </c>
       <c r="D97" t="n">
-        <v>12.52</v>
+        <v>12.19</v>
       </c>
       <c r="E97" t="n">
         <v>12.19</v>
       </c>
       <c r="F97" t="n">
-        <v>34803</v>
+        <v>44.4446</v>
       </c>
       <c r="G97" t="n">
-        <v>12.46149999999999</v>
+        <v>12.46533333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="C98" t="n">
-        <v>12.2</v>
+        <v>12.39</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>12.52</v>
       </c>
       <c r="E98" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="F98" t="n">
-        <v>3160</v>
+        <v>34803</v>
       </c>
       <c r="G98" t="n">
-        <v>12.45449999999999</v>
+        <v>12.46149999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="D99" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="E99" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>3160</v>
       </c>
       <c r="G99" t="n">
-        <v>12.44933333333332</v>
+        <v>12.45449999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.26</v>
+        <v>12.29</v>
       </c>
       <c r="C100" t="n">
-        <v>12.26</v>
+        <v>12.29</v>
       </c>
       <c r="D100" t="n">
-        <v>12.26</v>
+        <v>12.29</v>
       </c>
       <c r="E100" t="n">
-        <v>12.26</v>
+        <v>12.29</v>
       </c>
       <c r="F100" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G100" t="n">
-        <v>12.44383333333332</v>
+        <v>12.44933333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.3</v>
+        <v>12.26</v>
       </c>
       <c r="C101" t="n">
-        <v>12.3</v>
+        <v>12.26</v>
       </c>
       <c r="D101" t="n">
-        <v>12.3</v>
+        <v>12.26</v>
       </c>
       <c r="E101" t="n">
-        <v>12.3</v>
+        <v>12.26</v>
       </c>
       <c r="F101" t="n">
         <v>42</v>
       </c>
       <c r="G101" t="n">
-        <v>12.44333333333332</v>
+        <v>12.44383333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>12.3</v>
       </c>
       <c r="F102" t="n">
-        <v>578.8419</v>
+        <v>42</v>
       </c>
       <c r="G102" t="n">
-        <v>12.43849999999999</v>
+        <v>12.44333333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.29</v>
+        <v>12.3</v>
       </c>
       <c r="C103" t="n">
-        <v>12.29</v>
+        <v>12.3</v>
       </c>
       <c r="D103" t="n">
-        <v>12.29</v>
+        <v>12.3</v>
       </c>
       <c r="E103" t="n">
-        <v>12.29</v>
+        <v>12.3</v>
       </c>
       <c r="F103" t="n">
-        <v>42</v>
+        <v>578.8419</v>
       </c>
       <c r="G103" t="n">
-        <v>12.43349999999998</v>
+        <v>12.43849999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.28</v>
+        <v>12.29</v>
       </c>
       <c r="C104" t="n">
-        <v>12.17</v>
+        <v>12.29</v>
       </c>
       <c r="D104" t="n">
-        <v>12.28</v>
+        <v>12.29</v>
       </c>
       <c r="E104" t="n">
-        <v>12.17</v>
+        <v>12.29</v>
       </c>
       <c r="F104" t="n">
-        <v>28951.2758</v>
+        <v>42</v>
       </c>
       <c r="G104" t="n">
-        <v>12.42666666666665</v>
+        <v>12.43349999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="C105" t="n">
         <v>12.17</v>
       </c>
-      <c r="C105" t="n">
-        <v>12.16</v>
-      </c>
       <c r="D105" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E105" t="n">
         <v>12.17</v>
       </c>
-      <c r="E105" t="n">
-        <v>12.16</v>
-      </c>
       <c r="F105" t="n">
-        <v>68891.4767</v>
+        <v>28951.2758</v>
       </c>
       <c r="G105" t="n">
-        <v>12.41949999999998</v>
+        <v>12.42666666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>12.17</v>
       </c>
       <c r="C106" t="n">
-        <v>12.27</v>
+        <v>12.16</v>
       </c>
       <c r="D106" t="n">
-        <v>12.27</v>
+        <v>12.17</v>
       </c>
       <c r="E106" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="F106" t="n">
-        <v>400</v>
+        <v>68891.4767</v>
       </c>
       <c r="G106" t="n">
-        <v>12.41416666666665</v>
+        <v>12.41949999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>12.17</v>
       </c>
       <c r="C107" t="n">
-        <v>12.14</v>
+        <v>12.27</v>
       </c>
       <c r="D107" t="n">
-        <v>12.28</v>
+        <v>12.27</v>
       </c>
       <c r="E107" t="n">
-        <v>12.14</v>
+        <v>12.17</v>
       </c>
       <c r="F107" t="n">
-        <v>141137.3417</v>
+        <v>400</v>
       </c>
       <c r="G107" t="n">
-        <v>12.40983333333332</v>
+        <v>12.41416666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C108" t="n">
         <v>12.14</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.28</v>
       </c>
       <c r="D108" t="n">
         <v>12.28</v>
       </c>
       <c r="E108" t="n">
-        <v>12.13</v>
+        <v>12.14</v>
       </c>
       <c r="F108" t="n">
-        <v>484056.1746</v>
+        <v>141137.3417</v>
       </c>
       <c r="G108" t="n">
-        <v>12.40466666666665</v>
+        <v>12.40983333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>12.14</v>
       </c>
       <c r="C109" t="n">
-        <v>12.16</v>
+        <v>12.28</v>
       </c>
       <c r="D109" t="n">
-        <v>12.16</v>
+        <v>12.28</v>
       </c>
       <c r="E109" t="n">
-        <v>12.14</v>
+        <v>12.13</v>
       </c>
       <c r="F109" t="n">
-        <v>126</v>
+        <v>484056.1746</v>
       </c>
       <c r="G109" t="n">
-        <v>12.39766666666665</v>
+        <v>12.40466666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C110" t="n">
         <v>12.16</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.11</v>
       </c>
       <c r="D110" t="n">
         <v>12.16</v>
       </c>
       <c r="E110" t="n">
-        <v>12.11</v>
+        <v>12.14</v>
       </c>
       <c r="F110" t="n">
-        <v>48342.7174</v>
+        <v>126</v>
       </c>
       <c r="G110" t="n">
-        <v>12.39033333333331</v>
+        <v>12.39766666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.12</v>
+        <v>12.16</v>
       </c>
       <c r="C111" t="n">
-        <v>12.15</v>
+        <v>12.11</v>
       </c>
       <c r="D111" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="E111" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="F111" t="n">
-        <v>168</v>
+        <v>48342.7174</v>
       </c>
       <c r="G111" t="n">
-        <v>12.38383333333331</v>
+        <v>12.39033333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="C112" t="n">
-        <v>12.28</v>
+        <v>12.15</v>
       </c>
       <c r="D112" t="n">
-        <v>12.28</v>
+        <v>12.15</v>
       </c>
       <c r="E112" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="F112" t="n">
-        <v>4178.5488</v>
+        <v>168</v>
       </c>
       <c r="G112" t="n">
-        <v>12.37966666666665</v>
+        <v>12.38383333333331</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.19</v>
+        <v>12.16</v>
       </c>
       <c r="C113" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="D113" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="E113" t="n">
-        <v>12.13</v>
+        <v>12.15</v>
       </c>
       <c r="F113" t="n">
-        <v>23141.0386</v>
+        <v>4178.5488</v>
       </c>
       <c r="G113" t="n">
-        <v>12.37449999999998</v>
+        <v>12.37966666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="C114" t="n">
-        <v>12.14</v>
+        <v>12.26</v>
       </c>
       <c r="D114" t="n">
-        <v>12.14</v>
+        <v>12.26</v>
       </c>
       <c r="E114" t="n">
-        <v>12.14</v>
+        <v>12.13</v>
       </c>
       <c r="F114" t="n">
-        <v>93</v>
+        <v>23141.0386</v>
       </c>
       <c r="G114" t="n">
-        <v>12.36749999999998</v>
+        <v>12.37449999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,19 +4388,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="C115" t="n">
-        <v>12.29</v>
+        <v>12.14</v>
       </c>
       <c r="D115" t="n">
-        <v>12.29</v>
+        <v>12.14</v>
       </c>
       <c r="E115" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="F115" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G115" t="n">
         <v>12.36749999999998</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.29</v>
+        <v>12.15</v>
       </c>
       <c r="C116" t="n">
         <v>12.29</v>
@@ -4432,10 +4432,10 @@
         <v>12.29</v>
       </c>
       <c r="E116" t="n">
-        <v>12.29</v>
+        <v>12.15</v>
       </c>
       <c r="F116" t="n">
-        <v>646.3548</v>
+        <v>84</v>
       </c>
       <c r="G116" t="n">
         <v>12.36749999999998</v>
@@ -4461,19 +4461,19 @@
         <v>12.29</v>
       </c>
       <c r="C117" t="n">
-        <v>12.46</v>
+        <v>12.29</v>
       </c>
       <c r="D117" t="n">
-        <v>12.46</v>
+        <v>12.29</v>
       </c>
       <c r="E117" t="n">
         <v>12.29</v>
       </c>
       <c r="F117" t="n">
-        <v>57200</v>
+        <v>646.3548</v>
       </c>
       <c r="G117" t="n">
-        <v>12.37099999999998</v>
+        <v>12.36749999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.32</v>
+        <v>12.29</v>
       </c>
       <c r="C118" t="n">
-        <v>12.36</v>
+        <v>12.46</v>
       </c>
       <c r="D118" t="n">
         <v>12.46</v>
       </c>
       <c r="E118" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
       <c r="F118" t="n">
-        <v>3381</v>
+        <v>57200</v>
       </c>
       <c r="G118" t="n">
-        <v>12.37233333333331</v>
+        <v>12.37099999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C119" t="n">
         <v>12.36</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.46</v>
       </c>
       <c r="D119" t="n">
         <v>12.46</v>
       </c>
       <c r="E119" t="n">
-        <v>12.36</v>
+        <v>12.3</v>
       </c>
       <c r="F119" t="n">
-        <v>380</v>
+        <v>3381</v>
       </c>
       <c r="G119" t="n">
-        <v>12.37149999999998</v>
+        <v>12.37233333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="C120" t="n">
-        <v>12.2</v>
+        <v>12.46</v>
       </c>
       <c r="D120" t="n">
-        <v>12.33</v>
+        <v>12.46</v>
       </c>
       <c r="E120" t="n">
-        <v>12.2</v>
+        <v>12.36</v>
       </c>
       <c r="F120" t="n">
-        <v>160.2841</v>
+        <v>380</v>
       </c>
       <c r="G120" t="n">
-        <v>12.36499999999998</v>
+        <v>12.37149999999998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.2</v>
+        <v>12.33</v>
       </c>
       <c r="C121" t="n">
         <v>12.2</v>
       </c>
       <c r="D121" t="n">
-        <v>12.2</v>
+        <v>12.33</v>
       </c>
       <c r="E121" t="n">
         <v>12.2</v>
       </c>
       <c r="F121" t="n">
-        <v>22913.5356</v>
+        <v>160.2841</v>
       </c>
       <c r="G121" t="n">
-        <v>12.35849999999998</v>
+        <v>12.36499999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="C122" t="n">
-        <v>12.44</v>
+        <v>12.2</v>
       </c>
       <c r="D122" t="n">
-        <v>12.44</v>
+        <v>12.2</v>
       </c>
       <c r="E122" t="n">
-        <v>12.27</v>
+        <v>12.2</v>
       </c>
       <c r="F122" t="n">
-        <v>16000</v>
+        <v>22913.5356</v>
       </c>
       <c r="G122" t="n">
-        <v>12.35633333333332</v>
+        <v>12.35849999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C123" t="n">
         <v>12.44</v>
       </c>
-      <c r="C123" t="n">
-        <v>12.47</v>
-      </c>
       <c r="D123" t="n">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="E123" t="n">
-        <v>12.44</v>
+        <v>12.27</v>
       </c>
       <c r="F123" t="n">
-        <v>10692</v>
+        <v>16000</v>
       </c>
       <c r="G123" t="n">
-        <v>12.35766666666665</v>
+        <v>12.35633333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="C124" t="n">
         <v>12.47</v>
@@ -4712,13 +4712,13 @@
         <v>12.47</v>
       </c>
       <c r="E124" t="n">
-        <v>12.43</v>
+        <v>12.44</v>
       </c>
       <c r="F124" t="n">
-        <v>137.1</v>
+        <v>10692</v>
       </c>
       <c r="G124" t="n">
-        <v>12.35599999999998</v>
+        <v>12.35766666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.46</v>
+        <v>12.45</v>
       </c>
       <c r="C125" t="n">
-        <v>12.45</v>
+        <v>12.47</v>
       </c>
       <c r="D125" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="E125" t="n">
-        <v>12.3</v>
+        <v>12.43</v>
       </c>
       <c r="F125" t="n">
-        <v>3318.9</v>
+        <v>137.1</v>
       </c>
       <c r="G125" t="n">
-        <v>12.35416666666665</v>
+        <v>12.35599999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C126" t="n">
         <v>12.45</v>
       </c>
-      <c r="C126" t="n">
-        <v>12.41</v>
-      </c>
       <c r="D126" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="E126" t="n">
-        <v>12.41</v>
+        <v>12.3</v>
       </c>
       <c r="F126" t="n">
-        <v>5859</v>
+        <v>3318.9</v>
       </c>
       <c r="G126" t="n">
-        <v>12.35183333333332</v>
+        <v>12.35416666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="C127" t="n">
-        <v>12.2</v>
+        <v>12.41</v>
       </c>
       <c r="D127" t="n">
-        <v>12.4</v>
+        <v>12.45</v>
       </c>
       <c r="E127" t="n">
-        <v>12.2</v>
+        <v>12.41</v>
       </c>
       <c r="F127" t="n">
-        <v>211136.4697</v>
+        <v>5859</v>
       </c>
       <c r="G127" t="n">
-        <v>12.34683333333332</v>
+        <v>12.35183333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="C128" t="n">
-        <v>12.38</v>
+        <v>12.2</v>
       </c>
       <c r="D128" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="E128" t="n">
-        <v>12.38</v>
+        <v>12.2</v>
       </c>
       <c r="F128" t="n">
-        <v>96</v>
+        <v>211136.4697</v>
       </c>
       <c r="G128" t="n">
-        <v>12.34816666666665</v>
+        <v>12.34683333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="C129" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="D129" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="E129" t="n">
-        <v>12.35</v>
+        <v>12.38</v>
       </c>
       <c r="F129" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G129" t="n">
-        <v>12.34466666666665</v>
+        <v>12.34816666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.4</v>
+        <v>12.35</v>
       </c>
       <c r="C130" t="n">
-        <v>12.4</v>
+        <v>12.35</v>
       </c>
       <c r="D130" t="n">
-        <v>12.4</v>
+        <v>12.35</v>
       </c>
       <c r="E130" t="n">
-        <v>12.4</v>
+        <v>12.35</v>
       </c>
       <c r="F130" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G130" t="n">
-        <v>12.34449999999999</v>
+        <v>12.34466666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.26</v>
+        <v>12.4</v>
       </c>
       <c r="C131" t="n">
-        <v>12.34</v>
+        <v>12.4</v>
       </c>
       <c r="D131" t="n">
-        <v>12.34</v>
+        <v>12.4</v>
       </c>
       <c r="E131" t="n">
-        <v>12.26</v>
+        <v>12.4</v>
       </c>
       <c r="F131" t="n">
-        <v>71842</v>
+        <v>43</v>
       </c>
       <c r="G131" t="n">
-        <v>12.34083333333332</v>
+        <v>12.34449999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C132" t="n">
         <v>12.34</v>
       </c>
-      <c r="C132" t="n">
-        <v>12.48</v>
-      </c>
       <c r="D132" t="n">
-        <v>12.48</v>
+        <v>12.34</v>
       </c>
       <c r="E132" t="n">
-        <v>12.34</v>
+        <v>12.26</v>
       </c>
       <c r="F132" t="n">
-        <v>53334.3549</v>
+        <v>71842</v>
       </c>
       <c r="G132" t="n">
-        <v>12.34033333333332</v>
+        <v>12.34083333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.47</v>
+        <v>12.34</v>
       </c>
       <c r="C133" t="n">
         <v>12.48</v>
@@ -5027,13 +5027,13 @@
         <v>12.48</v>
       </c>
       <c r="E133" t="n">
-        <v>12.43</v>
+        <v>12.34</v>
       </c>
       <c r="F133" t="n">
-        <v>62506.1698</v>
+        <v>53334.3549</v>
       </c>
       <c r="G133" t="n">
-        <v>12.33849999999999</v>
+        <v>12.34033333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>12.47</v>
       </c>
       <c r="C134" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="D134" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="E134" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="F134" t="n">
-        <v>43</v>
+        <v>62506.1698</v>
       </c>
       <c r="G134" t="n">
-        <v>12.33733333333332</v>
+        <v>12.33849999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5091,19 @@
         <v>12.47</v>
       </c>
       <c r="C135" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="D135" t="n">
         <v>12.47</v>
       </c>
       <c r="E135" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="F135" t="n">
-        <v>618.2708</v>
+        <v>43</v>
       </c>
       <c r="G135" t="n">
-        <v>12.33849999999999</v>
+        <v>12.33733333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C136" t="n">
         <v>12.46</v>
       </c>
-      <c r="C136" t="n">
-        <v>12.45</v>
-      </c>
       <c r="D136" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="E136" t="n">
         <v>12.46</v>
       </c>
-      <c r="E136" t="n">
-        <v>12.45</v>
-      </c>
       <c r="F136" t="n">
-        <v>42.8257</v>
+        <v>618.2708</v>
       </c>
       <c r="G136" t="n">
-        <v>12.33599999999999</v>
+        <v>12.33849999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C137" t="n">
         <v>12.45</v>
       </c>
-      <c r="C137" t="n">
-        <v>12.44</v>
-      </c>
       <c r="D137" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="E137" t="n">
         <v>12.45</v>
       </c>
-      <c r="E137" t="n">
-        <v>12.44</v>
-      </c>
       <c r="F137" t="n">
-        <v>42.6844</v>
+        <v>42.8257</v>
       </c>
       <c r="G137" t="n">
-        <v>12.33666666666666</v>
+        <v>12.33599999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="C138" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
       <c r="D138" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="E138" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
       <c r="F138" t="n">
-        <v>87.99460000000001</v>
+        <v>42.6844</v>
       </c>
       <c r="G138" t="n">
-        <v>12.33516666666666</v>
+        <v>12.33666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C139" t="n">
         <v>12.46</v>
       </c>
-      <c r="C139" t="n">
-        <v>12.45</v>
-      </c>
       <c r="D139" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="E139" t="n">
         <v>12.46</v>
       </c>
-      <c r="E139" t="n">
-        <v>12.45</v>
-      </c>
       <c r="F139" t="n">
-        <v>45.3386</v>
+        <v>87.99460000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>12.33433333333333</v>
+        <v>12.33516666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.44</v>
+        <v>12.46</v>
       </c>
       <c r="C140" t="n">
-        <v>12.41</v>
+        <v>12.45</v>
       </c>
       <c r="D140" t="n">
-        <v>12.44</v>
+        <v>12.46</v>
       </c>
       <c r="E140" t="n">
-        <v>12.41</v>
+        <v>12.45</v>
       </c>
       <c r="F140" t="n">
-        <v>93.5496</v>
+        <v>45.3386</v>
       </c>
       <c r="G140" t="n">
-        <v>12.33283333333333</v>
+        <v>12.33433333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
       <c r="C141" t="n">
-        <v>12.45</v>
+        <v>12.41</v>
       </c>
       <c r="D141" t="n">
-        <v>12.46</v>
+        <v>12.44</v>
       </c>
       <c r="E141" t="n">
-        <v>12.29</v>
+        <v>12.41</v>
       </c>
       <c r="F141" t="n">
-        <v>8354.7724</v>
+        <v>93.5496</v>
       </c>
       <c r="G141" t="n">
-        <v>12.33366666666666</v>
+        <v>12.33283333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C142" t="n">
         <v>12.45</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.46</v>
       </c>
       <c r="D142" t="n">
         <v>12.46</v>
       </c>
       <c r="E142" t="n">
-        <v>12.44</v>
+        <v>12.29</v>
       </c>
       <c r="F142" t="n">
-        <v>344.8888</v>
+        <v>8354.7724</v>
       </c>
       <c r="G142" t="n">
-        <v>12.33466666666666</v>
+        <v>12.33366666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>12.45</v>
       </c>
       <c r="C143" t="n">
-        <v>12.44</v>
+        <v>12.46</v>
       </c>
       <c r="D143" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="E143" t="n">
         <v>12.44</v>
       </c>
       <c r="F143" t="n">
-        <v>88.8888</v>
+        <v>344.8888</v>
       </c>
       <c r="G143" t="n">
-        <v>12.33366666666666</v>
+        <v>12.33466666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.43</v>
+        <v>12.45</v>
       </c>
       <c r="C144" t="n">
-        <v>12.31</v>
+        <v>12.44</v>
       </c>
       <c r="D144" t="n">
-        <v>12.43</v>
+        <v>12.45</v>
       </c>
       <c r="E144" t="n">
-        <v>12.31</v>
+        <v>12.44</v>
       </c>
       <c r="F144" t="n">
-        <v>46523.3488</v>
+        <v>88.8888</v>
       </c>
       <c r="G144" t="n">
-        <v>12.33066666666666</v>
+        <v>12.33366666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="C145" t="n">
-        <v>12.42</v>
+        <v>12.31</v>
       </c>
       <c r="D145" t="n">
-        <v>12.46</v>
+        <v>12.43</v>
       </c>
       <c r="E145" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="F145" t="n">
-        <v>34229.7727</v>
+        <v>46523.3488</v>
       </c>
       <c r="G145" t="n">
-        <v>12.3295</v>
+        <v>12.33066666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="C146" t="n">
-        <v>12.45</v>
+        <v>12.42</v>
       </c>
       <c r="D146" t="n">
-        <v>12.47</v>
+        <v>12.46</v>
       </c>
       <c r="E146" t="n">
-        <v>12.45</v>
+        <v>12.3</v>
       </c>
       <c r="F146" t="n">
-        <v>177.8888</v>
+        <v>34229.7727</v>
       </c>
       <c r="G146" t="n">
-        <v>12.329</v>
+        <v>12.3295</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="C147" t="n">
         <v>12.45</v>
       </c>
-      <c r="C147" t="n">
-        <v>12.48</v>
-      </c>
       <c r="D147" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="E147" t="n">
         <v>12.45</v>
       </c>
       <c r="F147" t="n">
-        <v>101421.0398</v>
+        <v>177.8888</v>
       </c>
       <c r="G147" t="n">
-        <v>12.33033333333333</v>
+        <v>12.329</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="C148" t="n">
-        <v>12.51</v>
+        <v>12.48</v>
       </c>
       <c r="D148" t="n">
-        <v>12.52</v>
+        <v>12.48</v>
       </c>
       <c r="E148" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="F148" t="n">
-        <v>6844.4444</v>
+        <v>101421.0398</v>
       </c>
       <c r="G148" t="n">
-        <v>12.33066666666666</v>
+        <v>12.33033333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C149" t="n">
         <v>12.51</v>
       </c>
-      <c r="C149" t="n">
-        <v>12.5</v>
-      </c>
       <c r="D149" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="E149" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F149" t="n">
-        <v>1544.4444</v>
+        <v>6844.4444</v>
       </c>
       <c r="G149" t="n">
-        <v>12.33616666666666</v>
+        <v>12.33066666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>12.49</v>
+        <v>12.51</v>
       </c>
       <c r="C150" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="D150" t="n">
-        <v>12.49</v>
+        <v>12.51</v>
       </c>
       <c r="E150" t="n">
-        <v>12.44</v>
+        <v>12.5</v>
       </c>
       <c r="F150" t="n">
-        <v>88256.59729999999</v>
+        <v>1544.4444</v>
       </c>
       <c r="G150" t="n">
-        <v>12.33833333333333</v>
+        <v>12.33616666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C151" t="n">
         <v>12.44</v>
       </c>
-      <c r="C151" t="n">
-        <v>12.55</v>
-      </c>
       <c r="D151" t="n">
-        <v>12.55</v>
+        <v>12.49</v>
       </c>
       <c r="E151" t="n">
-        <v>12.42</v>
+        <v>12.44</v>
       </c>
       <c r="F151" t="n">
-        <v>103487.8942</v>
+        <v>88256.59729999999</v>
       </c>
       <c r="G151" t="n">
-        <v>12.33966666666666</v>
+        <v>12.33833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12.54</v>
+        <v>12.44</v>
       </c>
       <c r="C152" t="n">
         <v>12.55</v>
@@ -5692,13 +5692,13 @@
         <v>12.55</v>
       </c>
       <c r="E152" t="n">
-        <v>12.5</v>
+        <v>12.42</v>
       </c>
       <c r="F152" t="n">
-        <v>242</v>
+        <v>103487.8942</v>
       </c>
       <c r="G152" t="n">
-        <v>12.34383333333333</v>
+        <v>12.33966666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>12.53</v>
+        <v>12.54</v>
       </c>
       <c r="C153" t="n">
-        <v>12.4</v>
+        <v>12.55</v>
       </c>
       <c r="D153" t="n">
-        <v>12.53</v>
+        <v>12.55</v>
       </c>
       <c r="E153" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F153" t="n">
-        <v>13568.6799</v>
+        <v>242</v>
       </c>
       <c r="G153" t="n">
-        <v>12.34716666666666</v>
+        <v>12.34383333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5756,19 @@
         <v>12.53</v>
       </c>
       <c r="C154" t="n">
-        <v>12.53</v>
+        <v>12.4</v>
       </c>
       <c r="D154" t="n">
         <v>12.53</v>
       </c>
       <c r="E154" t="n">
-        <v>12.38</v>
+        <v>12.4</v>
       </c>
       <c r="F154" t="n">
-        <v>345.0021</v>
+        <v>13568.6799</v>
       </c>
       <c r="G154" t="n">
-        <v>12.35383333333333</v>
+        <v>12.34716666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="C155" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="D155" t="n">
-        <v>12.51</v>
+        <v>12.53</v>
       </c>
       <c r="E155" t="n">
-        <v>12.51</v>
+        <v>12.38</v>
       </c>
       <c r="F155" t="n">
-        <v>4400</v>
+        <v>345.0021</v>
       </c>
       <c r="G155" t="n">
-        <v>12.36016666666666</v>
+        <v>12.35383333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="C156" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="D156" t="n">
-        <v>12.54</v>
+        <v>12.51</v>
       </c>
       <c r="E156" t="n">
-        <v>12.52</v>
+        <v>12.51</v>
       </c>
       <c r="F156" t="n">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="G156" t="n">
-        <v>12.36599999999999</v>
+        <v>12.36016666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="C157" t="n">
-        <v>12.38</v>
+        <v>12.54</v>
       </c>
       <c r="D157" t="n">
-        <v>12.5</v>
+        <v>12.54</v>
       </c>
       <c r="E157" t="n">
-        <v>12.38</v>
+        <v>12.52</v>
       </c>
       <c r="F157" t="n">
-        <v>12593.2704</v>
+        <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>12.36583333333333</v>
+        <v>12.36599999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="C158" t="n">
-        <v>12.49</v>
+        <v>12.38</v>
       </c>
       <c r="D158" t="n">
-        <v>12.49</v>
+        <v>12.5</v>
       </c>
       <c r="E158" t="n">
-        <v>12.49</v>
+        <v>12.38</v>
       </c>
       <c r="F158" t="n">
-        <v>13000</v>
+        <v>12593.2704</v>
       </c>
       <c r="G158" t="n">
-        <v>12.37066666666666</v>
+        <v>12.36583333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>12.46</v>
+        <v>12.49</v>
       </c>
       <c r="C159" t="n">
-        <v>12.46</v>
+        <v>12.49</v>
       </c>
       <c r="D159" t="n">
-        <v>12.46</v>
+        <v>12.49</v>
       </c>
       <c r="E159" t="n">
-        <v>12.46</v>
+        <v>12.49</v>
       </c>
       <c r="F159" t="n">
-        <v>42</v>
+        <v>13000</v>
       </c>
       <c r="G159" t="n">
-        <v>12.3735</v>
+        <v>12.37066666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="n">
-        <v>12.37683333333333</v>
+        <v>12.3735</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="C161" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="D161" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="E161" t="n">
-        <v>12.45</v>
+        <v>12.46</v>
       </c>
       <c r="F161" t="n">
         <v>42</v>
       </c>
       <c r="G161" t="n">
-        <v>12.37933333333333</v>
+        <v>12.37683333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,19 +6033,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="C162" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="D162" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="E162" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="F162" t="n">
-        <v>312503.9541</v>
+        <v>42</v>
       </c>
       <c r="G162" t="n">
         <v>12.37933333333333</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>12.32</v>
+        <v>12.44</v>
       </c>
       <c r="C163" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="D163" t="n">
-        <v>12.32</v>
+        <v>12.44</v>
       </c>
       <c r="E163" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="F163" t="n">
-        <v>208241.7347</v>
+        <v>312503.9541</v>
       </c>
       <c r="G163" t="n">
-        <v>12.37883333333333</v>
+        <v>12.37933333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.29</v>
+        <v>12.32</v>
       </c>
       <c r="C164" t="n">
-        <v>12.29</v>
+        <v>12.26</v>
       </c>
       <c r="D164" t="n">
-        <v>12.29</v>
+        <v>12.32</v>
       </c>
       <c r="E164" t="n">
-        <v>12.29</v>
+        <v>12.26</v>
       </c>
       <c r="F164" t="n">
-        <v>1454.2442</v>
+        <v>208241.7347</v>
       </c>
       <c r="G164" t="n">
-        <v>12.38083333333333</v>
+        <v>12.37883333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>12.29</v>
       </c>
       <c r="F165" t="n">
-        <v>5264.9453</v>
+        <v>1454.2442</v>
       </c>
       <c r="G165" t="n">
-        <v>12.383</v>
+        <v>12.38083333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="C166" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="D166" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="E166" t="n">
-        <v>12.31</v>
+        <v>12.29</v>
       </c>
       <c r="F166" t="n">
-        <v>16969</v>
+        <v>5264.9453</v>
       </c>
       <c r="G166" t="n">
-        <v>12.38366666666666</v>
+        <v>12.383</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="C167" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="D167" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="E167" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="F167" t="n">
-        <v>2409.6386</v>
+        <v>16969</v>
       </c>
       <c r="G167" t="n">
-        <v>12.38883333333333</v>
+        <v>12.38366666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="C168" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="D168" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="E168" t="n">
-        <v>12.3</v>
+        <v>12.45</v>
       </c>
       <c r="F168" t="n">
-        <v>2065.9054</v>
+        <v>2409.6386</v>
       </c>
       <c r="G168" t="n">
-        <v>12.38916666666666</v>
+        <v>12.38883333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="C169" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="D169" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="E169" t="n">
-        <v>12.31</v>
+        <v>12.3</v>
       </c>
       <c r="F169" t="n">
-        <v>10603.815</v>
+        <v>2065.9054</v>
       </c>
       <c r="G169" t="n">
-        <v>12.39166666666666</v>
+        <v>12.38916666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>12.31</v>
       </c>
       <c r="F170" t="n">
-        <v>9889.956700000001</v>
+        <v>10603.815</v>
       </c>
       <c r="G170" t="n">
-        <v>12.395</v>
+        <v>12.39166666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>12.31</v>
       </c>
       <c r="F171" t="n">
-        <v>46517.2799</v>
+        <v>9889.956700000001</v>
       </c>
       <c r="G171" t="n">
-        <v>12.39766666666666</v>
+        <v>12.395</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,13 +6386,13 @@
         <v>12.31</v>
       </c>
       <c r="C172" t="n">
-        <v>12.28</v>
+        <v>12.31</v>
       </c>
       <c r="D172" t="n">
         <v>12.31</v>
       </c>
       <c r="E172" t="n">
-        <v>12.28</v>
+        <v>12.31</v>
       </c>
       <c r="F172" t="n">
         <v>46517.2799</v>
@@ -6418,19 +6418,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>12.26</v>
+        <v>12.31</v>
       </c>
       <c r="C173" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="D173" t="n">
-        <v>12.26</v>
+        <v>12.31</v>
       </c>
       <c r="E173" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="F173" t="n">
-        <v>81603.94749999999</v>
+        <v>46517.2799</v>
       </c>
       <c r="G173" t="n">
         <v>12.39766666666666</v>
@@ -6456,19 +6456,19 @@
         <v>12.26</v>
       </c>
       <c r="C174" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="D174" t="n">
         <v>12.26</v>
       </c>
       <c r="E174" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="F174" t="n">
-        <v>29016.7126</v>
+        <v>81603.94749999999</v>
       </c>
       <c r="G174" t="n">
-        <v>12.3995</v>
+        <v>12.39766666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6491,19 @@
         <v>12.26</v>
       </c>
       <c r="C175" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="D175" t="n">
         <v>12.26</v>
       </c>
       <c r="E175" t="n">
-        <v>12.26</v>
+        <v>12.25</v>
       </c>
       <c r="F175" t="n">
-        <v>29987.1127</v>
+        <v>29016.7126</v>
       </c>
       <c r="G175" t="n">
-        <v>12.399</v>
+        <v>12.3995</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>12.26</v>
       </c>
       <c r="F176" t="n">
-        <v>30696.3742</v>
+        <v>29987.1127</v>
       </c>
       <c r="G176" t="n">
-        <v>12.3985</v>
+        <v>12.399</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12.39</v>
+        <v>12.26</v>
       </c>
       <c r="C177" t="n">
-        <v>12.5</v>
+        <v>12.26</v>
       </c>
       <c r="D177" t="n">
-        <v>12.5</v>
+        <v>12.26</v>
       </c>
       <c r="E177" t="n">
-        <v>12.39</v>
+        <v>12.26</v>
       </c>
       <c r="F177" t="n">
-        <v>233986.5842</v>
+        <v>30696.3742</v>
       </c>
       <c r="G177" t="n">
-        <v>12.39916666666666</v>
+        <v>12.3985</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12.5</v>
+        <v>12.39</v>
       </c>
       <c r="C178" t="n">
         <v>12.5</v>
@@ -6602,13 +6602,13 @@
         <v>12.5</v>
       </c>
       <c r="E178" t="n">
-        <v>12.5</v>
+        <v>12.39</v>
       </c>
       <c r="F178" t="n">
-        <v>5957.7892</v>
+        <v>233986.5842</v>
       </c>
       <c r="G178" t="n">
-        <v>12.4015</v>
+        <v>12.39916666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>12.33</v>
+        <v>12.5</v>
       </c>
       <c r="C179" t="n">
-        <v>12.33</v>
+        <v>12.5</v>
       </c>
       <c r="D179" t="n">
-        <v>12.33</v>
+        <v>12.5</v>
       </c>
       <c r="E179" t="n">
-        <v>12.33</v>
+        <v>12.5</v>
       </c>
       <c r="F179" t="n">
-        <v>38929.44</v>
+        <v>5957.7892</v>
       </c>
       <c r="G179" t="n">
-        <v>12.39933333333333</v>
+        <v>12.4015</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="C180" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="D180" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="E180" t="n">
-        <v>12.32</v>
+        <v>12.33</v>
       </c>
       <c r="F180" t="n">
-        <v>4227.4854</v>
+        <v>38929.44</v>
       </c>
       <c r="G180" t="n">
-        <v>12.40133333333333</v>
+        <v>12.39933333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.26</v>
+        <v>12.32</v>
       </c>
       <c r="C181" t="n">
-        <v>12.25</v>
+        <v>12.32</v>
       </c>
       <c r="D181" t="n">
-        <v>12.26</v>
+        <v>12.32</v>
       </c>
       <c r="E181" t="n">
-        <v>12.25</v>
+        <v>12.32</v>
       </c>
       <c r="F181" t="n">
-        <v>143107.1221</v>
+        <v>4227.4854</v>
       </c>
       <c r="G181" t="n">
-        <v>12.40216666666666</v>
+        <v>12.40133333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="C182" t="n">
         <v>12.25</v>
       </c>
       <c r="D182" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="E182" t="n">
         <v>12.25</v>
       </c>
       <c r="F182" t="n">
-        <v>5636.9664</v>
+        <v>143107.1221</v>
       </c>
       <c r="G182" t="n">
-        <v>12.399</v>
+        <v>12.40216666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6771,19 +6771,19 @@
         <v>12.25</v>
       </c>
       <c r="C183" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="D183" t="n">
         <v>12.25</v>
       </c>
       <c r="E183" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="F183" t="n">
-        <v>422386.0254</v>
+        <v>5636.9664</v>
       </c>
       <c r="G183" t="n">
-        <v>12.3945</v>
+        <v>12.399</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>12.43</v>
+        <v>12.25</v>
       </c>
       <c r="C184" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
       </c>
       <c r="D184" t="n">
-        <v>12.43</v>
+        <v>12.25</v>
       </c>
       <c r="E184" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
       </c>
       <c r="F184" t="n">
-        <v>38929.44</v>
+        <v>422386.0254</v>
       </c>
       <c r="G184" t="n">
-        <v>12.39383333333333</v>
+        <v>12.3945</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="C185" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="D185" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="E185" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="F185" t="n">
-        <v>525431.0446</v>
+        <v>38929.44</v>
       </c>
       <c r="G185" t="n">
-        <v>12.38999999999999</v>
+        <v>12.39383333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C186" t="n">
         <v>12.22</v>
       </c>
-      <c r="C186" t="n">
-        <v>12.43</v>
-      </c>
       <c r="D186" t="n">
-        <v>12.43</v>
+        <v>12.44</v>
       </c>
       <c r="E186" t="n">
         <v>12.22</v>
       </c>
       <c r="F186" t="n">
-        <v>48718.8807</v>
+        <v>525431.0446</v>
       </c>
       <c r="G186" t="n">
-        <v>12.39033333333333</v>
+        <v>12.38999999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>12.22</v>
       </c>
       <c r="C187" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="D187" t="n">
-        <v>12.22</v>
+        <v>12.43</v>
       </c>
       <c r="E187" t="n">
         <v>12.22</v>
       </c>
       <c r="F187" t="n">
-        <v>17524</v>
+        <v>48718.8807</v>
       </c>
       <c r="G187" t="n">
-        <v>12.39066666666666</v>
+        <v>12.39033333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>12.24</v>
+        <v>12.22</v>
       </c>
       <c r="C188" t="n">
-        <v>12.24</v>
+        <v>12.22</v>
       </c>
       <c r="D188" t="n">
-        <v>12.24</v>
+        <v>12.22</v>
       </c>
       <c r="E188" t="n">
-        <v>12.24</v>
+        <v>12.22</v>
       </c>
       <c r="F188" t="n">
-        <v>2624.4083</v>
+        <v>17524</v>
       </c>
       <c r="G188" t="n">
-        <v>12.38833333333333</v>
+        <v>12.39066666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>12.41</v>
+        <v>12.24</v>
       </c>
       <c r="C189" t="n">
-        <v>12.41</v>
+        <v>12.24</v>
       </c>
       <c r="D189" t="n">
-        <v>12.41</v>
+        <v>12.24</v>
       </c>
       <c r="E189" t="n">
-        <v>12.41</v>
+        <v>12.24</v>
       </c>
       <c r="F189" t="n">
-        <v>50</v>
+        <v>2624.4083</v>
       </c>
       <c r="G189" t="n">
-        <v>12.38933333333333</v>
+        <v>12.38833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>12.41</v>
       </c>
       <c r="F190" t="n">
-        <v>90862.00629999999</v>
+        <v>50</v>
       </c>
       <c r="G190" t="n">
-        <v>12.38949999999999</v>
+        <v>12.38933333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="C191" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="D191" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="E191" t="n">
-        <v>12.42</v>
+        <v>12.41</v>
       </c>
       <c r="F191" t="n">
-        <v>39316.5131</v>
+        <v>90862.00629999999</v>
       </c>
       <c r="G191" t="n">
-        <v>12.39083333333332</v>
+        <v>12.38949999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="C192" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="D192" t="n">
-        <v>12.43</v>
+        <v>12.42</v>
       </c>
       <c r="E192" t="n">
-        <v>12.2</v>
+        <v>12.42</v>
       </c>
       <c r="F192" t="n">
-        <v>358192.2892</v>
+        <v>39316.5131</v>
       </c>
       <c r="G192" t="n">
-        <v>12.38999999999999</v>
+        <v>12.39083333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>12.43</v>
+        <v>12.28</v>
       </c>
       <c r="C193" t="n">
         <v>12.43</v>
@@ -7127,13 +7127,13 @@
         <v>12.43</v>
       </c>
       <c r="E193" t="n">
-        <v>12.43</v>
+        <v>12.2</v>
       </c>
       <c r="F193" t="n">
-        <v>1454.2442</v>
+        <v>358192.2892</v>
       </c>
       <c r="G193" t="n">
-        <v>12.38916666666666</v>
+        <v>12.38999999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>12.43</v>
       </c>
       <c r="F194" t="n">
-        <v>46874.6405</v>
+        <v>1454.2442</v>
       </c>
       <c r="G194" t="n">
-        <v>12.38849999999999</v>
+        <v>12.38916666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="C195" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="D195" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="E195" t="n">
-        <v>12.44</v>
+        <v>12.43</v>
       </c>
       <c r="F195" t="n">
-        <v>10407.6479</v>
+        <v>46874.6405</v>
       </c>
       <c r="G195" t="n">
-        <v>12.38816666666665</v>
+        <v>12.38849999999999</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,19 +7223,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="C196" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="D196" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="E196" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="F196" t="n">
-        <v>126.2576</v>
+        <v>10407.6479</v>
       </c>
       <c r="G196" t="n">
         <v>12.38816666666665</v>
@@ -7270,10 +7270,10 @@
         <v>12.45</v>
       </c>
       <c r="F197" t="n">
-        <v>66850.89079999999</v>
+        <v>126.2576</v>
       </c>
       <c r="G197" t="n">
-        <v>12.38833333333332</v>
+        <v>12.38816666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="C198" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="D198" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="E198" t="n">
-        <v>12.47</v>
+        <v>12.45</v>
       </c>
       <c r="F198" t="n">
-        <v>1000</v>
+        <v>66850.89079999999</v>
       </c>
       <c r="G198" t="n">
-        <v>12.38849999999999</v>
+        <v>12.38833333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="C199" t="n">
-        <v>12.49</v>
+        <v>12.47</v>
       </c>
       <c r="D199" t="n">
-        <v>12.49</v>
+        <v>12.47</v>
       </c>
       <c r="E199" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="F199" t="n">
-        <v>126960.077</v>
+        <v>1000</v>
       </c>
       <c r="G199" t="n">
-        <v>12.38916666666665</v>
+        <v>12.38849999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>12.52</v>
+        <v>12.48</v>
       </c>
       <c r="C200" t="n">
-        <v>12.51</v>
+        <v>12.49</v>
       </c>
       <c r="D200" t="n">
-        <v>12.52</v>
+        <v>12.49</v>
       </c>
       <c r="E200" t="n">
-        <v>12.37</v>
+        <v>12.48</v>
       </c>
       <c r="F200" t="n">
-        <v>42249.5837</v>
+        <v>126960.077</v>
       </c>
       <c r="G200" t="n">
-        <v>12.39083333333332</v>
+        <v>12.38916666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>12.35</v>
+        <v>12.52</v>
       </c>
       <c r="C201" t="n">
         <v>12.51</v>
       </c>
       <c r="D201" t="n">
-        <v>12.51</v>
+        <v>12.52</v>
       </c>
       <c r="E201" t="n">
-        <v>12.35</v>
+        <v>12.37</v>
       </c>
       <c r="F201" t="n">
-        <v>69172.19749999999</v>
+        <v>42249.5837</v>
       </c>
       <c r="G201" t="n">
-        <v>12.39183333333332</v>
+        <v>12.39083333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12.51</v>
+        <v>12.35</v>
       </c>
       <c r="C202" t="n">
         <v>12.51</v>
@@ -7442,13 +7442,13 @@
         <v>12.51</v>
       </c>
       <c r="E202" t="n">
-        <v>12.51</v>
+        <v>12.35</v>
       </c>
       <c r="F202" t="n">
-        <v>343.7250199840128</v>
+        <v>69172.19749999999</v>
       </c>
       <c r="G202" t="n">
-        <v>12.39266666666665</v>
+        <v>12.39183333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="C203" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="D203" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="E203" t="n">
-        <v>12.47</v>
+        <v>12.51</v>
       </c>
       <c r="F203" t="n">
-        <v>37006.156</v>
+        <v>343.7250199840128</v>
       </c>
       <c r="G203" t="n">
-        <v>12.39316666666665</v>
+        <v>12.39266666666665</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="C204" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="D204" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="E204" t="n">
-        <v>12.48</v>
+        <v>12.47</v>
       </c>
       <c r="F204" t="n">
-        <v>12052.4289</v>
+        <v>37006.156</v>
       </c>
       <c r="G204" t="n">
-        <v>12.39599999999999</v>
+        <v>12.39316666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>12.48</v>
       </c>
       <c r="F205" t="n">
-        <v>18057</v>
+        <v>12052.4289</v>
       </c>
       <c r="G205" t="n">
-        <v>12.39699999999999</v>
+        <v>12.39599999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="C206" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="D206" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="E206" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="F206" t="n">
-        <v>41</v>
+        <v>18057</v>
       </c>
       <c r="G206" t="n">
-        <v>12.39766666666665</v>
+        <v>12.39699999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>12.49</v>
       </c>
       <c r="F207" t="n">
-        <v>11995.0654</v>
+        <v>41</v>
       </c>
       <c r="G207" t="n">
-        <v>12.39783333333332</v>
+        <v>12.39766666666665</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C208" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="D208" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="E208" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F208" t="n">
-        <v>26626.5121</v>
+        <v>11995.0654</v>
       </c>
       <c r="G208" t="n">
-        <v>12.39766666666665</v>
+        <v>12.39783333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>12.5</v>
       </c>
       <c r="F209" t="n">
-        <v>109750.3784</v>
+        <v>26626.5121</v>
       </c>
       <c r="G209" t="n">
         <v>12.39766666666665</v>
@@ -7725,10 +7725,10 @@
         <v>12.5</v>
       </c>
       <c r="F210" t="n">
-        <v>273.6917</v>
+        <v>109750.3784</v>
       </c>
       <c r="G210" t="n">
-        <v>12.39866666666665</v>
+        <v>12.39766666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.36</v>
+        <v>12.5</v>
       </c>
       <c r="C211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D211" t="n">
-        <v>12.36</v>
+        <v>12.5</v>
       </c>
       <c r="E211" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F211" t="n">
-        <v>40000</v>
+        <v>273.6917</v>
       </c>
       <c r="G211" t="n">
-        <v>12.39449999999999</v>
+        <v>12.39866666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>12.5</v>
+        <v>12.36</v>
       </c>
       <c r="C212" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D212" t="n">
-        <v>12.5</v>
+        <v>12.36</v>
       </c>
       <c r="E212" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F212" t="n">
-        <v>50</v>
+        <v>40000</v>
       </c>
       <c r="G212" t="n">
-        <v>12.39366666666665</v>
+        <v>12.39449999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.35</v>
+        <v>12.5</v>
       </c>
       <c r="C213" t="n">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="D213" t="n">
-        <v>12.35</v>
+        <v>12.5</v>
       </c>
       <c r="E213" t="n">
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="F213" t="n">
-        <v>229407.744</v>
+        <v>50</v>
       </c>
       <c r="G213" t="n">
-        <v>12.39116666666665</v>
+        <v>12.39366666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>12.3</v>
+        <v>12.35</v>
       </c>
       <c r="C214" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="D214" t="n">
-        <v>12.3</v>
+        <v>12.35</v>
       </c>
       <c r="E214" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="F214" t="n">
-        <v>3247.4076</v>
+        <v>229407.744</v>
       </c>
       <c r="G214" t="n">
-        <v>12.38733333333332</v>
+        <v>12.39116666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>12.24</v>
+        <v>12.3</v>
       </c>
       <c r="C215" t="n">
-        <v>12.23</v>
+        <v>12.3</v>
       </c>
       <c r="D215" t="n">
-        <v>12.24</v>
+        <v>12.3</v>
       </c>
       <c r="E215" t="n">
-        <v>12.23</v>
+        <v>12.3</v>
       </c>
       <c r="F215" t="n">
-        <v>112481.0888</v>
+        <v>3247.4076</v>
       </c>
       <c r="G215" t="n">
-        <v>12.38266666666665</v>
+        <v>12.38733333333332</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7926,19 +7926,19 @@
         <v>12.24</v>
       </c>
       <c r="C216" t="n">
-        <v>12.22</v>
+        <v>12.23</v>
       </c>
       <c r="D216" t="n">
         <v>12.24</v>
       </c>
       <c r="E216" t="n">
-        <v>12.22</v>
+        <v>12.23</v>
       </c>
       <c r="F216" t="n">
-        <v>3247.4076</v>
+        <v>112481.0888</v>
       </c>
       <c r="G216" t="n">
-        <v>12.37733333333332</v>
+        <v>12.38266666666665</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.23</v>
+        <v>12.24</v>
       </c>
       <c r="C217" t="n">
-        <v>12.23</v>
+        <v>12.22</v>
       </c>
       <c r="D217" t="n">
-        <v>12.23</v>
+        <v>12.24</v>
       </c>
       <c r="E217" t="n">
-        <v>12.23</v>
+        <v>12.22</v>
       </c>
       <c r="F217" t="n">
-        <v>9510.0466</v>
+        <v>3247.4076</v>
       </c>
       <c r="G217" t="n">
-        <v>12.37483333333332</v>
+        <v>12.37733333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="C218" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="D218" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="E218" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="F218" t="n">
-        <v>41</v>
+        <v>9510.0466</v>
       </c>
       <c r="G218" t="n">
-        <v>12.37166666666665</v>
+        <v>12.37483333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="C219" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="D219" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="E219" t="n">
-        <v>12.26</v>
+        <v>12.3</v>
       </c>
       <c r="F219" t="n">
-        <v>128.4474</v>
+        <v>41</v>
       </c>
       <c r="G219" t="n">
-        <v>12.36833333333332</v>
+        <v>12.37166666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>12.26</v>
       </c>
       <c r="C220" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="D220" t="n">
         <v>12.26</v>
       </c>
       <c r="E220" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="F220" t="n">
-        <v>88122.81969999999</v>
+        <v>128.4474</v>
       </c>
       <c r="G220" t="n">
-        <v>12.36483333333332</v>
+        <v>12.36833333333332</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="C221" t="n">
         <v>12.25</v>
       </c>
       <c r="D221" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="E221" t="n">
         <v>12.25</v>
       </c>
       <c r="F221" t="n">
-        <v>18891</v>
+        <v>88122.81969999999</v>
       </c>
       <c r="G221" t="n">
-        <v>12.36149999999999</v>
+        <v>12.36483333333332</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,19 +8133,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="C222" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="D222" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="E222" t="n">
-        <v>12.3</v>
+        <v>12.25</v>
       </c>
       <c r="F222" t="n">
-        <v>12299.9192</v>
+        <v>18891</v>
       </c>
       <c r="G222" t="n">
         <v>12.36149999999999</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="C223" t="n">
-        <v>12.36</v>
+        <v>12.3</v>
       </c>
       <c r="D223" t="n">
-        <v>12.37</v>
+        <v>12.3</v>
       </c>
       <c r="E223" t="n">
-        <v>12.36</v>
+        <v>12.3</v>
       </c>
       <c r="F223" t="n">
-        <v>60616.6384</v>
+        <v>12299.9192</v>
       </c>
       <c r="G223" t="n">
-        <v>12.36316666666665</v>
+        <v>12.36149999999999</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12.25</v>
+        <v>12.37</v>
       </c>
       <c r="C224" t="n">
-        <v>12.25</v>
+        <v>12.36</v>
       </c>
       <c r="D224" t="n">
-        <v>12.25</v>
+        <v>12.37</v>
       </c>
       <c r="E224" t="n">
-        <v>12.25</v>
+        <v>12.36</v>
       </c>
       <c r="F224" t="n">
-        <v>100</v>
+        <v>60616.6384</v>
       </c>
       <c r="G224" t="n">
-        <v>12.36249999999999</v>
+        <v>12.36316666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12.34</v>
+        <v>12.25</v>
       </c>
       <c r="C225" t="n">
-        <v>12.45</v>
+        <v>12.25</v>
       </c>
       <c r="D225" t="n">
-        <v>12.45</v>
+        <v>12.25</v>
       </c>
       <c r="E225" t="n">
-        <v>12.34</v>
+        <v>12.25</v>
       </c>
       <c r="F225" t="n">
-        <v>18632.7843</v>
+        <v>100</v>
       </c>
       <c r="G225" t="n">
-        <v>12.36516666666665</v>
+        <v>12.36249999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12.45</v>
+        <v>12.34</v>
       </c>
       <c r="C226" t="n">
         <v>12.45</v>
@@ -8282,13 +8282,13 @@
         <v>12.45</v>
       </c>
       <c r="E226" t="n">
-        <v>12.45</v>
+        <v>12.34</v>
       </c>
       <c r="F226" t="n">
-        <v>97</v>
+        <v>18632.7843</v>
       </c>
       <c r="G226" t="n">
-        <v>12.36749999999999</v>
+        <v>12.36516666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12.31</v>
+        <v>12.45</v>
       </c>
       <c r="C227" t="n">
-        <v>12.31</v>
+        <v>12.45</v>
       </c>
       <c r="D227" t="n">
-        <v>12.31</v>
+        <v>12.45</v>
       </c>
       <c r="E227" t="n">
-        <v>12.31</v>
+        <v>12.45</v>
       </c>
       <c r="F227" t="n">
-        <v>19470</v>
+        <v>97</v>
       </c>
       <c r="G227" t="n">
-        <v>12.36516666666665</v>
+        <v>12.36749999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="C228" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="D228" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="E228" t="n">
-        <v>12.32</v>
+        <v>12.31</v>
       </c>
       <c r="F228" t="n">
-        <v>30000</v>
+        <v>19470</v>
       </c>
       <c r="G228" t="n">
-        <v>12.36549999999999</v>
+        <v>12.36516666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12.42</v>
+        <v>12.32</v>
       </c>
       <c r="C229" t="n">
-        <v>12.42</v>
+        <v>12.32</v>
       </c>
       <c r="D229" t="n">
-        <v>12.42</v>
+        <v>12.32</v>
       </c>
       <c r="E229" t="n">
-        <v>12.42</v>
+        <v>12.32</v>
       </c>
       <c r="F229" t="n">
-        <v>41</v>
+        <v>30000</v>
       </c>
       <c r="G229" t="n">
-        <v>12.36733333333332</v>
+        <v>12.36549999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>12.42</v>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="G230" t="n">
-        <v>12.36916666666666</v>
+        <v>12.36733333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>12.42</v>
       </c>
       <c r="F231" t="n">
-        <v>45094.5807</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="n">
-        <v>12.37099999999999</v>
+        <v>12.36916666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>12.45</v>
+        <v>12.42</v>
       </c>
       <c r="C232" t="n">
-        <v>12.48</v>
+        <v>12.42</v>
       </c>
       <c r="D232" t="n">
-        <v>12.48</v>
+        <v>12.42</v>
       </c>
       <c r="E232" t="n">
-        <v>12.45</v>
+        <v>12.42</v>
       </c>
       <c r="F232" t="n">
-        <v>183623.2594</v>
+        <v>45094.5807</v>
       </c>
       <c r="G232" t="n">
-        <v>12.37433333333332</v>
+        <v>12.37099999999999</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="C233" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="D233" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="E233" t="n">
-        <v>12.49</v>
+        <v>12.45</v>
       </c>
       <c r="F233" t="n">
-        <v>41</v>
+        <v>183623.2594</v>
       </c>
       <c r="G233" t="n">
-        <v>12.37816666666666</v>
+        <v>12.37433333333332</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8565,10 +8565,10 @@
         <v>12.49</v>
       </c>
       <c r="F234" t="n">
-        <v>7973.4963</v>
+        <v>41</v>
       </c>
       <c r="G234" t="n">
-        <v>12.38216666666666</v>
+        <v>12.37816666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="C235" t="n">
-        <v>12.53</v>
+        <v>12.49</v>
       </c>
       <c r="D235" t="n">
-        <v>12.53</v>
+        <v>12.49</v>
       </c>
       <c r="E235" t="n">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="F235" t="n">
-        <v>64175.6903</v>
+        <v>7973.4963</v>
       </c>
       <c r="G235" t="n">
-        <v>12.38666666666666</v>
+        <v>12.38216666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="C236" t="n">
         <v>12.53</v>
@@ -8632,13 +8632,13 @@
         <v>12.53</v>
       </c>
       <c r="E236" t="n">
-        <v>12.53</v>
+        <v>12.5</v>
       </c>
       <c r="F236" t="n">
-        <v>18204.7212</v>
+        <v>64175.6903</v>
       </c>
       <c r="G236" t="n">
-        <v>12.39116666666666</v>
+        <v>12.38666666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8661,19 +8661,19 @@
         <v>12.53</v>
       </c>
       <c r="C237" t="n">
-        <v>12.61</v>
+        <v>12.53</v>
       </c>
       <c r="D237" t="n">
-        <v>12.61</v>
+        <v>12.53</v>
       </c>
       <c r="E237" t="n">
         <v>12.53</v>
       </c>
       <c r="F237" t="n">
-        <v>207796.5285</v>
+        <v>18204.7212</v>
       </c>
       <c r="G237" t="n">
-        <v>12.39299999999999</v>
+        <v>12.39116666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C238" t="n">
         <v>12.61</v>
       </c>
-      <c r="C238" t="n">
-        <v>12.62</v>
-      </c>
       <c r="D238" t="n">
-        <v>12.62</v>
+        <v>12.61</v>
       </c>
       <c r="E238" t="n">
-        <v>12.61</v>
+        <v>12.53</v>
       </c>
       <c r="F238" t="n">
-        <v>91414.76330000001</v>
+        <v>207796.5285</v>
       </c>
       <c r="G238" t="n">
-        <v>12.39499999999999</v>
+        <v>12.39299999999999</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>12.63</v>
+        <v>12.61</v>
       </c>
       <c r="C239" t="n">
-        <v>12.67</v>
+        <v>12.62</v>
       </c>
       <c r="D239" t="n">
-        <v>12.67</v>
+        <v>12.62</v>
       </c>
       <c r="E239" t="n">
-        <v>12.62</v>
+        <v>12.61</v>
       </c>
       <c r="F239" t="n">
-        <v>92957.3465</v>
+        <v>91414.76330000001</v>
       </c>
       <c r="G239" t="n">
-        <v>12.40066666666666</v>
+        <v>12.39499999999999</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="C240" t="n">
         <v>12.67</v>
       </c>
-      <c r="C240" t="n">
-        <v>12.51</v>
-      </c>
       <c r="D240" t="n">
-        <v>12.72</v>
+        <v>12.67</v>
       </c>
       <c r="E240" t="n">
-        <v>12.51</v>
+        <v>12.62</v>
       </c>
       <c r="F240" t="n">
-        <v>6583.3879</v>
+        <v>92957.3465</v>
       </c>
       <c r="G240" t="n">
-        <v>12.40383333333332</v>
+        <v>12.40066666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>12.72</v>
+        <v>12.67</v>
       </c>
       <c r="C241" t="n">
-        <v>12.71</v>
+        <v>12.51</v>
       </c>
       <c r="D241" t="n">
         <v>12.72</v>
       </c>
       <c r="E241" t="n">
-        <v>12.71</v>
+        <v>12.51</v>
       </c>
       <c r="F241" t="n">
-        <v>364546.8977</v>
+        <v>6583.3879</v>
       </c>
       <c r="G241" t="n">
-        <v>12.41149999999999</v>
+        <v>12.40383333333332</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8836,19 +8836,19 @@
         <v>12.72</v>
       </c>
       <c r="C242" t="n">
-        <v>12.72</v>
+        <v>12.71</v>
       </c>
       <c r="D242" t="n">
         <v>12.72</v>
       </c>
       <c r="E242" t="n">
-        <v>12.72</v>
+        <v>12.71</v>
       </c>
       <c r="F242" t="n">
-        <v>103627.6288</v>
+        <v>364546.8977</v>
       </c>
       <c r="G242" t="n">
-        <v>12.41933333333332</v>
+        <v>12.41149999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8880,16 +8880,16 @@
         <v>12.72</v>
       </c>
       <c r="F243" t="n">
-        <v>73549.89200000001</v>
+        <v>103627.6288</v>
       </c>
       <c r="G243" t="n">
-        <v>12.42799999999999</v>
+        <v>12.41933333333332</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -8903,28 +8903,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>12.73</v>
+        <v>12.72</v>
       </c>
       <c r="C244" t="n">
-        <v>12.75</v>
+        <v>12.72</v>
       </c>
       <c r="D244" t="n">
-        <v>12.75</v>
+        <v>12.72</v>
       </c>
       <c r="E244" t="n">
-        <v>12.73</v>
+        <v>12.72</v>
       </c>
       <c r="F244" t="n">
-        <v>1499.520545490196</v>
+        <v>73549.89200000001</v>
       </c>
       <c r="G244" t="n">
-        <v>12.43333333333332</v>
+        <v>12.42799999999999</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -8938,28 +8938,28 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C245" t="n">
         <v>12.75</v>
       </c>
-      <c r="C245" t="n">
-        <v>12.82</v>
-      </c>
       <c r="D245" t="n">
-        <v>12.82</v>
+        <v>12.75</v>
       </c>
       <c r="E245" t="n">
-        <v>12.75</v>
+        <v>12.73</v>
       </c>
       <c r="F245" t="n">
-        <v>160405.4492545098</v>
+        <v>1499.520545490196</v>
       </c>
       <c r="G245" t="n">
-        <v>12.44333333333332</v>
+        <v>12.43333333333332</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C246" t="n">
         <v>12.82</v>
       </c>
-      <c r="C246" t="n">
-        <v>12.88</v>
-      </c>
       <c r="D246" t="n">
-        <v>12.88</v>
+        <v>12.82</v>
       </c>
       <c r="E246" t="n">
-        <v>12.78</v>
+        <v>12.75</v>
       </c>
       <c r="F246" t="n">
-        <v>174801.319</v>
+        <v>160405.4492545098</v>
       </c>
       <c r="G246" t="n">
-        <v>12.45083333333332</v>
+        <v>12.44333333333332</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>12.85</v>
+        <v>12.82</v>
       </c>
       <c r="C247" t="n">
         <v>12.88</v>
@@ -9017,13 +9017,13 @@
         <v>12.88</v>
       </c>
       <c r="E247" t="n">
-        <v>12.79</v>
+        <v>12.78</v>
       </c>
       <c r="F247" t="n">
-        <v>241091.3642</v>
+        <v>174801.319</v>
       </c>
       <c r="G247" t="n">
-        <v>12.46183333333332</v>
+        <v>12.45083333333332</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9052,13 +9052,13 @@
         <v>12.88</v>
       </c>
       <c r="E248" t="n">
-        <v>12.85</v>
+        <v>12.79</v>
       </c>
       <c r="F248" t="n">
-        <v>2193.548</v>
+        <v>241091.3642</v>
       </c>
       <c r="G248" t="n">
-        <v>12.47249999999999</v>
+        <v>12.46183333333332</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9081,25 +9081,25 @@
         <v>12.85</v>
       </c>
       <c r="C249" t="n">
-        <v>12.85</v>
+        <v>12.88</v>
       </c>
       <c r="D249" t="n">
-        <v>12.85</v>
+        <v>12.88</v>
       </c>
       <c r="E249" t="n">
         <v>12.85</v>
       </c>
       <c r="F249" t="n">
-        <v>80.4517</v>
+        <v>2193.548</v>
       </c>
       <c r="G249" t="n">
-        <v>12.47983333333332</v>
+        <v>12.47249999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -9113,28 +9113,28 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>12.77</v>
+        <v>12.85</v>
       </c>
       <c r="C250" t="n">
-        <v>12.7</v>
+        <v>12.85</v>
       </c>
       <c r="D250" t="n">
-        <v>12.77</v>
+        <v>12.85</v>
       </c>
       <c r="E250" t="n">
-        <v>12.7</v>
+        <v>12.85</v>
       </c>
       <c r="F250" t="n">
-        <v>57655.9368454902</v>
+        <v>80.4517</v>
       </c>
       <c r="G250" t="n">
-        <v>12.48466666666666</v>
+        <v>12.47983333333332</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="C251" t="n">
         <v>12.7</v>
       </c>
-      <c r="C251" t="n">
-        <v>12.76</v>
-      </c>
       <c r="D251" t="n">
-        <v>12.76</v>
+        <v>12.77</v>
       </c>
       <c r="E251" t="n">
         <v>12.7</v>
       </c>
       <c r="F251" t="n">
-        <v>274977.1932</v>
+        <v>57655.9368454902</v>
       </c>
       <c r="G251" t="n">
-        <v>12.49033333333333</v>
+        <v>12.48466666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9186,19 +9186,19 @@
         <v>12.7</v>
       </c>
       <c r="C252" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E252" t="n">
         <v>12.7</v>
       </c>
-      <c r="D252" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E252" t="n">
-        <v>12.41</v>
-      </c>
       <c r="F252" t="n">
-        <v>20283</v>
+        <v>274977.1932</v>
       </c>
       <c r="G252" t="n">
-        <v>12.49483333333333</v>
+        <v>12.49033333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9221,19 +9221,19 @@
         <v>12.7</v>
       </c>
       <c r="C253" t="n">
-        <v>12.76</v>
+        <v>12.7</v>
       </c>
       <c r="D253" t="n">
-        <v>12.76</v>
+        <v>12.7</v>
       </c>
       <c r="E253" t="n">
-        <v>12.7</v>
+        <v>12.41</v>
       </c>
       <c r="F253" t="n">
-        <v>65919.5092</v>
+        <v>20283</v>
       </c>
       <c r="G253" t="n">
-        <v>12.50033333333333</v>
+        <v>12.49483333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,7 +9253,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>12.76</v>
+        <v>12.7</v>
       </c>
       <c r="C254" t="n">
         <v>12.76</v>
@@ -9262,13 +9262,13 @@
         <v>12.76</v>
       </c>
       <c r="E254" t="n">
-        <v>12.76</v>
+        <v>12.7</v>
       </c>
       <c r="F254" t="n">
-        <v>84954.50019999999</v>
+        <v>65919.5092</v>
       </c>
       <c r="G254" t="n">
-        <v>12.50583333333333</v>
+        <v>12.50033333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9300,10 +9300,10 @@
         <v>12.76</v>
       </c>
       <c r="F255" t="n">
-        <v>48627.7706</v>
+        <v>84954.50019999999</v>
       </c>
       <c r="G255" t="n">
-        <v>12.51116666666666</v>
+        <v>12.50583333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>12.61</v>
+        <v>12.76</v>
       </c>
       <c r="C256" t="n">
-        <v>12.61</v>
+        <v>12.76</v>
       </c>
       <c r="D256" t="n">
-        <v>12.61</v>
+        <v>12.76</v>
       </c>
       <c r="E256" t="n">
-        <v>12.61</v>
+        <v>12.76</v>
       </c>
       <c r="F256" t="n">
-        <v>1650.4076</v>
+        <v>48627.7706</v>
       </c>
       <c r="G256" t="n">
-        <v>12.51383333333333</v>
+        <v>12.51116666666666</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="C257" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="D257" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="E257" t="n">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="F257" t="n">
-        <v>43321.7284</v>
+        <v>1650.4076</v>
       </c>
       <c r="G257" t="n">
-        <v>12.51633333333333</v>
+        <v>12.51383333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="C258" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="D258" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="E258" t="n">
-        <v>12.52</v>
+        <v>12.6</v>
       </c>
       <c r="F258" t="n">
-        <v>27003.2977</v>
+        <v>43321.7284</v>
       </c>
       <c r="G258" t="n">
-        <v>12.51716666666666</v>
+        <v>12.51633333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="C259" t="n">
         <v>12.52</v>
       </c>
-      <c r="C259" t="n">
-        <v>12.51</v>
-      </c>
       <c r="D259" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="E259" t="n">
         <v>12.52</v>
       </c>
-      <c r="E259" t="n">
-        <v>12.51</v>
-      </c>
       <c r="F259" t="n">
-        <v>30805.2073</v>
+        <v>27003.2977</v>
       </c>
       <c r="G259" t="n">
-        <v>12.51749999999999</v>
+        <v>12.51716666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>12.61</v>
+        <v>12.52</v>
       </c>
       <c r="C260" t="n">
-        <v>12.61</v>
+        <v>12.51</v>
       </c>
       <c r="D260" t="n">
-        <v>12.61</v>
+        <v>12.52</v>
       </c>
       <c r="E260" t="n">
-        <v>12.61</v>
+        <v>12.51</v>
       </c>
       <c r="F260" t="n">
-        <v>50</v>
+        <v>30805.2073</v>
       </c>
       <c r="G260" t="n">
-        <v>12.51916666666666</v>
+        <v>12.51749999999999</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9510,10 +9510,10 @@
         <v>12.61</v>
       </c>
       <c r="F261" t="n">
-        <v>39373.6829</v>
+        <v>50</v>
       </c>
       <c r="G261" t="n">
-        <v>12.52083333333333</v>
+        <v>12.51916666666666</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>12.53</v>
+        <v>12.61</v>
       </c>
       <c r="C262" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="D262" t="n">
-        <v>12.53</v>
+        <v>12.61</v>
       </c>
       <c r="E262" t="n">
-        <v>12.5</v>
+        <v>12.61</v>
       </c>
       <c r="F262" t="n">
-        <v>109736.0995</v>
+        <v>39373.6829</v>
       </c>
       <c r="G262" t="n">
-        <v>12.52066666666666</v>
+        <v>12.52083333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="C263" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="D263" t="n">
-        <v>12.65</v>
+        <v>12.53</v>
       </c>
       <c r="E263" t="n">
-        <v>12.65</v>
+        <v>12.5</v>
       </c>
       <c r="F263" t="n">
-        <v>1000</v>
+        <v>109736.0995</v>
       </c>
       <c r="G263" t="n">
-        <v>12.52366666666666</v>
+        <v>12.52066666666666</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9606,19 +9606,19 @@
         <v>12.65</v>
       </c>
       <c r="C264" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="D264" t="n">
         <v>12.65</v>
       </c>
       <c r="E264" t="n">
-        <v>12.51</v>
+        <v>12.65</v>
       </c>
       <c r="F264" t="n">
-        <v>1909.1281</v>
+        <v>1000</v>
       </c>
       <c r="G264" t="n">
-        <v>12.52416666666666</v>
+        <v>12.52366666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="C265" t="n">
-        <v>12.4</v>
+        <v>12.51</v>
       </c>
       <c r="D265" t="n">
-        <v>12.5</v>
+        <v>12.65</v>
       </c>
       <c r="E265" t="n">
-        <v>12.4</v>
+        <v>12.51</v>
       </c>
       <c r="F265" t="n">
-        <v>45218.2433</v>
+        <v>1909.1281</v>
       </c>
       <c r="G265" t="n">
-        <v>12.52283333333333</v>
+        <v>12.52416666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C266" t="n">
         <v>12.4</v>
       </c>
       <c r="D266" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E266" t="n">
         <v>12.4</v>
       </c>
       <c r="F266" t="n">
-        <v>18069.651</v>
+        <v>45218.2433</v>
       </c>
       <c r="G266" t="n">
-        <v>12.52133333333333</v>
+        <v>12.52283333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
       <c r="C267" t="n">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
       <c r="D267" t="n">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
       <c r="E267" t="n">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
       <c r="F267" t="n">
-        <v>40.3523</v>
+        <v>18069.651</v>
       </c>
       <c r="G267" t="n">
-        <v>12.52349999999999</v>
+        <v>12.52133333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>12.48</v>
+        <v>12.62</v>
       </c>
       <c r="C268" t="n">
-        <v>12.46</v>
+        <v>12.62</v>
       </c>
       <c r="D268" t="n">
-        <v>12.48</v>
+        <v>12.62</v>
       </c>
       <c r="E268" t="n">
-        <v>12.46</v>
+        <v>12.62</v>
       </c>
       <c r="F268" t="n">
-        <v>15194.6162</v>
+        <v>40.3523</v>
       </c>
       <c r="G268" t="n">
-        <v>12.52283333333333</v>
+        <v>12.52349999999999</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="C269" t="n">
         <v>12.46</v>
       </c>
       <c r="D269" t="n">
-        <v>12.47</v>
+        <v>12.48</v>
       </c>
       <c r="E269" t="n">
         <v>12.46</v>
       </c>
       <c r="F269" t="n">
-        <v>62030.5282</v>
+        <v>15194.6162</v>
       </c>
       <c r="G269" t="n">
-        <v>12.52216666666666</v>
+        <v>12.52283333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="C270" t="n">
         <v>12.46</v>
       </c>
       <c r="D270" t="n">
-        <v>12.46</v>
+        <v>12.47</v>
       </c>
       <c r="E270" t="n">
         <v>12.46</v>
       </c>
       <c r="F270" t="n">
-        <v>30906.6103</v>
+        <v>62030.5282</v>
       </c>
       <c r="G270" t="n">
-        <v>12.52149999999999</v>
+        <v>12.52216666666666</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9851,19 +9851,19 @@
         <v>12.46</v>
       </c>
       <c r="C271" t="n">
-        <v>12.39</v>
+        <v>12.46</v>
       </c>
       <c r="D271" t="n">
         <v>12.46</v>
       </c>
       <c r="E271" t="n">
-        <v>12.39</v>
+        <v>12.46</v>
       </c>
       <c r="F271" t="n">
-        <v>14824.2695</v>
+        <v>30906.6103</v>
       </c>
       <c r="G271" t="n">
-        <v>12.52299999999999</v>
+        <v>12.52149999999999</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>12.4</v>
+        <v>12.46</v>
       </c>
       <c r="C272" t="n">
-        <v>12.4</v>
+        <v>12.39</v>
       </c>
       <c r="D272" t="n">
-        <v>12.4</v>
+        <v>12.46</v>
       </c>
       <c r="E272" t="n">
-        <v>12.4</v>
+        <v>12.39</v>
       </c>
       <c r="F272" t="n">
-        <v>25838.698</v>
+        <v>14824.2695</v>
       </c>
       <c r="G272" t="n">
-        <v>12.52133333333333</v>
+        <v>12.52299999999999</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9930,10 +9930,10 @@
         <v>12.4</v>
       </c>
       <c r="F273" t="n">
-        <v>521.2175</v>
+        <v>25838.698</v>
       </c>
       <c r="G273" t="n">
-        <v>12.52383333333333</v>
+        <v>12.52133333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="C274" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="D274" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="E274" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="F274" t="n">
-        <v>41</v>
+        <v>521.2175</v>
       </c>
       <c r="G274" t="n">
-        <v>12.52683333333333</v>
+        <v>12.52383333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>12.39</v>
+        <v>12.48</v>
       </c>
       <c r="C275" t="n">
-        <v>12.37</v>
+        <v>12.48</v>
       </c>
       <c r="D275" t="n">
-        <v>12.39</v>
+        <v>12.48</v>
       </c>
       <c r="E275" t="n">
-        <v>12.37</v>
+        <v>12.48</v>
       </c>
       <c r="F275" t="n">
-        <v>18204.7212</v>
+        <v>41</v>
       </c>
       <c r="G275" t="n">
-        <v>12.52916666666666</v>
+        <v>12.52683333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>12.37</v>
+        <v>12.39</v>
       </c>
       <c r="C276" t="n">
         <v>12.37</v>
       </c>
       <c r="D276" t="n">
-        <v>12.37</v>
+        <v>12.39</v>
       </c>
       <c r="E276" t="n">
         <v>12.37</v>
       </c>
       <c r="F276" t="n">
-        <v>26359.9155</v>
+        <v>18204.7212</v>
       </c>
       <c r="G276" t="n">
-        <v>12.53166666666666</v>
+        <v>12.52916666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10061,19 +10061,19 @@
         <v>12.37</v>
       </c>
       <c r="C277" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="D277" t="n">
         <v>12.37</v>
       </c>
       <c r="E277" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="F277" t="n">
-        <v>31052.4709</v>
+        <v>26359.9155</v>
       </c>
       <c r="G277" t="n">
-        <v>12.53383333333333</v>
+        <v>12.53166666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10093,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>12.41</v>
+        <v>12.37</v>
       </c>
       <c r="C278" t="n">
-        <v>12.48</v>
+        <v>12.36</v>
       </c>
       <c r="D278" t="n">
-        <v>12.48</v>
+        <v>12.37</v>
       </c>
       <c r="E278" t="n">
-        <v>12.41</v>
+        <v>12.36</v>
       </c>
       <c r="F278" t="n">
-        <v>443038.992</v>
+        <v>31052.4709</v>
       </c>
       <c r="G278" t="n">
-        <v>12.53683333333333</v>
+        <v>12.53383333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C279" t="n">
         <v>12.48</v>
-      </c>
-      <c r="C279" t="n">
-        <v>12.36</v>
       </c>
       <c r="D279" t="n">
         <v>12.48</v>
       </c>
       <c r="E279" t="n">
-        <v>12.36</v>
+        <v>12.41</v>
       </c>
       <c r="F279" t="n">
-        <v>21146</v>
+        <v>443038.992</v>
       </c>
       <c r="G279" t="n">
-        <v>12.5385</v>
+        <v>12.53683333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="C280" t="n">
         <v>12.36</v>
       </c>
       <c r="D280" t="n">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="E280" t="n">
         <v>12.36</v>
       </c>
       <c r="F280" t="n">
-        <v>23125.696</v>
+        <v>21146</v>
       </c>
       <c r="G280" t="n">
-        <v>12.54033333333333</v>
+        <v>12.5385</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C281" t="n">
         <v>12.36</v>
       </c>
-      <c r="C281" t="n">
-        <v>12.35</v>
-      </c>
       <c r="D281" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E281" t="n">
         <v>12.36</v>
       </c>
-      <c r="E281" t="n">
-        <v>12.35</v>
-      </c>
       <c r="F281" t="n">
-        <v>80491.0428</v>
+        <v>23125.696</v>
       </c>
       <c r="G281" t="n">
-        <v>12.542</v>
+        <v>12.54033333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>12.49</v>
+        <v>12.36</v>
       </c>
       <c r="C282" t="n">
-        <v>12.49</v>
+        <v>12.35</v>
       </c>
       <c r="D282" t="n">
-        <v>12.49</v>
+        <v>12.36</v>
       </c>
       <c r="E282" t="n">
-        <v>12.49</v>
+        <v>12.35</v>
       </c>
       <c r="F282" t="n">
-        <v>7284.7504</v>
+        <v>80491.0428</v>
       </c>
       <c r="G282" t="n">
-        <v>12.54516666666666</v>
+        <v>12.542</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10280,10 +10280,10 @@
         <v>12.49</v>
       </c>
       <c r="F283" t="n">
-        <v>2717.6603</v>
+        <v>7284.7504</v>
       </c>
       <c r="G283" t="n">
-        <v>12.54733333333333</v>
+        <v>12.54516666666666</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="C284" t="n">
-        <v>12.31</v>
+        <v>12.49</v>
       </c>
       <c r="D284" t="n">
-        <v>12.4</v>
+        <v>12.49</v>
       </c>
       <c r="E284" t="n">
-        <v>12.31</v>
+        <v>12.49</v>
       </c>
       <c r="F284" t="n">
-        <v>56577.8875</v>
+        <v>2717.6603</v>
       </c>
       <c r="G284" t="n">
-        <v>12.54833333333333</v>
+        <v>12.54733333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="C285" t="n">
-        <v>12.48</v>
+        <v>12.31</v>
       </c>
       <c r="D285" t="n">
-        <v>12.48</v>
+        <v>12.4</v>
       </c>
       <c r="E285" t="n">
-        <v>12.48</v>
+        <v>12.31</v>
       </c>
       <c r="F285" t="n">
-        <v>50</v>
+        <v>56577.8875</v>
       </c>
       <c r="G285" t="n">
-        <v>12.54883333333333</v>
+        <v>12.54833333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10373,22 +10373,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>12.32</v>
+        <v>12.48</v>
       </c>
       <c r="C286" t="n">
-        <v>12.31</v>
+        <v>12.48</v>
       </c>
       <c r="D286" t="n">
-        <v>12.32</v>
+        <v>12.48</v>
       </c>
       <c r="E286" t="n">
-        <v>12.31</v>
+        <v>12.48</v>
       </c>
       <c r="F286" t="n">
-        <v>46090.5678</v>
+        <v>50</v>
       </c>
       <c r="G286" t="n">
-        <v>12.54649999999999</v>
+        <v>12.54883333333333</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,19 +10408,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>12.31</v>
+        <v>12.32</v>
       </c>
       <c r="C287" t="n">
         <v>12.31</v>
       </c>
       <c r="D287" t="n">
-        <v>12.31</v>
+        <v>12.32</v>
       </c>
       <c r="E287" t="n">
         <v>12.31</v>
       </c>
       <c r="F287" t="n">
-        <v>18954.916</v>
+        <v>46090.5678</v>
       </c>
       <c r="G287" t="n">
         <v>12.54649999999999</v>
@@ -10455,10 +10455,10 @@
         <v>12.31</v>
       </c>
       <c r="F288" t="n">
-        <v>31111.1332</v>
+        <v>18954.916</v>
       </c>
       <c r="G288" t="n">
-        <v>12.54633333333333</v>
+        <v>12.54649999999999</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10490,10 +10490,10 @@
         <v>12.31</v>
       </c>
       <c r="F289" t="n">
-        <v>64697.6779</v>
+        <v>31111.1332</v>
       </c>
       <c r="G289" t="n">
-        <v>12.54449999999999</v>
+        <v>12.54633333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10513,22 +10513,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="C290" t="n">
-        <v>12.26</v>
+        <v>12.31</v>
       </c>
       <c r="D290" t="n">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="E290" t="n">
-        <v>12.26</v>
+        <v>12.31</v>
       </c>
       <c r="F290" t="n">
-        <v>45217.7325</v>
+        <v>64697.6779</v>
       </c>
       <c r="G290" t="n">
-        <v>12.54183333333333</v>
+        <v>12.54449999999999</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C291" t="n">
         <v>12.26</v>
       </c>
-      <c r="C291" t="n">
-        <v>12.22</v>
-      </c>
       <c r="D291" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E291" t="n">
         <v>12.26</v>
       </c>
-      <c r="E291" t="n">
-        <v>12.22</v>
-      </c>
       <c r="F291" t="n">
-        <v>393826.3721</v>
+        <v>45217.7325</v>
       </c>
       <c r="G291" t="n">
-        <v>12.53849999999999</v>
+        <v>12.54183333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10583,32 +10583,38 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12.22</v>
+        <v>12.26</v>
       </c>
       <c r="C292" t="n">
         <v>12.22</v>
       </c>
       <c r="D292" t="n">
-        <v>12.22</v>
+        <v>12.26</v>
       </c>
       <c r="E292" t="n">
         <v>12.22</v>
       </c>
       <c r="F292" t="n">
-        <v>20358.7758</v>
+        <v>393826.3721</v>
       </c>
       <c r="G292" t="n">
-        <v>12.53416666666666</v>
+        <v>12.53849999999999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>12.26</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10618,32 +10624,38 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="C293" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="D293" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="E293" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="F293" t="n">
-        <v>82</v>
+        <v>20358.7758</v>
       </c>
       <c r="G293" t="n">
-        <v>12.53016666666666</v>
+        <v>12.53416666666666</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>12.22</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10653,22 +10665,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12.24</v>
+        <v>12.25</v>
       </c>
       <c r="C294" t="n">
-        <v>12.22</v>
+        <v>12.25</v>
       </c>
       <c r="D294" t="n">
-        <v>12.24</v>
+        <v>12.25</v>
       </c>
       <c r="E294" t="n">
-        <v>12.22</v>
+        <v>12.25</v>
       </c>
       <c r="F294" t="n">
-        <v>66533.52529999999</v>
+        <v>82</v>
       </c>
       <c r="G294" t="n">
-        <v>12.52566666666666</v>
+        <v>12.53016666666666</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10678,7 +10690,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10688,22 +10704,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12.21</v>
+        <v>12.24</v>
       </c>
       <c r="C295" t="n">
-        <v>12.25</v>
+        <v>12.22</v>
       </c>
       <c r="D295" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="E295" t="n">
-        <v>12.19</v>
+        <v>12.22</v>
       </c>
       <c r="F295" t="n">
-        <v>155066.7969</v>
+        <v>66533.52529999999</v>
       </c>
       <c r="G295" t="n">
-        <v>12.52099999999999</v>
+        <v>12.52566666666666</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10713,7 +10729,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10723,22 +10743,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>12.19</v>
+        <v>12.21</v>
       </c>
       <c r="C296" t="n">
-        <v>12.19</v>
+        <v>12.25</v>
       </c>
       <c r="D296" t="n">
-        <v>12.19</v>
+        <v>12.25</v>
       </c>
       <c r="E296" t="n">
         <v>12.19</v>
       </c>
       <c r="F296" t="n">
-        <v>21826</v>
+        <v>155066.7969</v>
       </c>
       <c r="G296" t="n">
-        <v>12.51533333333333</v>
+        <v>12.52099999999999</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10748,7 +10768,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10761,19 +10785,19 @@
         <v>12.19</v>
       </c>
       <c r="C297" t="n">
-        <v>12.18</v>
+        <v>12.19</v>
       </c>
       <c r="D297" t="n">
         <v>12.19</v>
       </c>
       <c r="E297" t="n">
-        <v>12.18</v>
+        <v>12.19</v>
       </c>
       <c r="F297" t="n">
-        <v>12341.4445</v>
+        <v>21826</v>
       </c>
       <c r="G297" t="n">
-        <v>12.50816666666666</v>
+        <v>12.51533333333333</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10783,7 +10807,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10793,22 +10821,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>12.25</v>
+        <v>12.19</v>
       </c>
       <c r="C298" t="n">
-        <v>12.25</v>
+        <v>12.18</v>
       </c>
       <c r="D298" t="n">
-        <v>12.25</v>
+        <v>12.19</v>
       </c>
       <c r="E298" t="n">
-        <v>12.25</v>
+        <v>12.18</v>
       </c>
       <c r="F298" t="n">
-        <v>41957.4223</v>
+        <v>12341.4445</v>
       </c>
       <c r="G298" t="n">
-        <v>12.50199999999999</v>
+        <v>12.50816666666666</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10818,7 +10846,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10828,22 +10860,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>12.18</v>
+        <v>12.25</v>
       </c>
       <c r="C299" t="n">
-        <v>12.18</v>
+        <v>12.25</v>
       </c>
       <c r="D299" t="n">
-        <v>12.18</v>
+        <v>12.25</v>
       </c>
       <c r="E299" t="n">
-        <v>12.18</v>
+        <v>12.25</v>
       </c>
       <c r="F299" t="n">
-        <v>72197.6986</v>
+        <v>41957.4223</v>
       </c>
       <c r="G299" t="n">
-        <v>12.49383333333333</v>
+        <v>12.50199999999999</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10853,7 +10885,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10863,22 +10899,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>12.17</v>
+        <v>12.18</v>
       </c>
       <c r="C300" t="n">
-        <v>12.05</v>
+        <v>12.18</v>
       </c>
       <c r="D300" t="n">
-        <v>12.17</v>
+        <v>12.18</v>
       </c>
       <c r="E300" t="n">
-        <v>12.05</v>
+        <v>12.18</v>
       </c>
       <c r="F300" t="n">
-        <v>261908.5661</v>
+        <v>72197.6986</v>
       </c>
       <c r="G300" t="n">
-        <v>12.48616666666666</v>
+        <v>12.49383333333333</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10888,7 +10924,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10898,10 +10938,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C301" t="n">
         <v>12.05</v>
-      </c>
-      <c r="C301" t="n">
-        <v>12.17</v>
       </c>
       <c r="D301" t="n">
         <v>12.17</v>
@@ -10910,10 +10950,10 @@
         <v>12.05</v>
       </c>
       <c r="F301" t="n">
-        <v>85547.7257</v>
+        <v>261908.5661</v>
       </c>
       <c r="G301" t="n">
-        <v>12.47716666666666</v>
+        <v>12.48616666666666</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10923,7 +10963,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10933,22 +10977,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>12.13</v>
+        <v>12.05</v>
       </c>
       <c r="C302" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="D302" t="n">
-        <v>12.13</v>
+        <v>12.17</v>
       </c>
       <c r="E302" t="n">
-        <v>12.13</v>
+        <v>12.05</v>
       </c>
       <c r="F302" t="n">
-        <v>2931.1576</v>
+        <v>85547.7257</v>
       </c>
       <c r="G302" t="n">
-        <v>12.46733333333333</v>
+        <v>12.47716666666666</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10958,7 +11002,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10968,22 +11016,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>12.06</v>
+        <v>12.13</v>
       </c>
       <c r="C303" t="n">
-        <v>12.06</v>
+        <v>12.13</v>
       </c>
       <c r="D303" t="n">
-        <v>12.06</v>
+        <v>12.13</v>
       </c>
       <c r="E303" t="n">
-        <v>12.06</v>
+        <v>12.13</v>
       </c>
       <c r="F303" t="n">
-        <v>21309.4446</v>
+        <v>2931.1576</v>
       </c>
       <c r="G303" t="n">
-        <v>12.45633333333332</v>
+        <v>12.46733333333333</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -10993,7 +11041,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11003,22 +11055,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="C304" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="D304" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="E304" t="n">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="F304" t="n">
-        <v>28608.7636</v>
+        <v>21309.4446</v>
       </c>
       <c r="G304" t="n">
-        <v>12.44583333333332</v>
+        <v>12.45633333333332</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11028,7 +11080,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11050,10 +11106,10 @@
         <v>12.12</v>
       </c>
       <c r="F305" t="n">
-        <v>17000</v>
+        <v>28608.7636</v>
       </c>
       <c r="G305" t="n">
-        <v>12.43416666666666</v>
+        <v>12.44583333333332</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11063,7 +11119,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11073,22 +11133,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="C306" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="D306" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="E306" t="n">
-        <v>12.13</v>
+        <v>12.12</v>
       </c>
       <c r="F306" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G306" t="n">
-        <v>12.42166666666666</v>
+        <v>12.43416666666666</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11098,7 +11158,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11120,10 +11184,10 @@
         <v>12.13</v>
       </c>
       <c r="F307" t="n">
-        <v>875.971</v>
+        <v>15000</v>
       </c>
       <c r="G307" t="n">
-        <v>12.40916666666666</v>
+        <v>12.42166666666666</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11133,7 +11197,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11155,10 +11223,10 @@
         <v>12.13</v>
       </c>
       <c r="F308" t="n">
-        <v>4655.4886</v>
+        <v>875.971</v>
       </c>
       <c r="G308" t="n">
-        <v>12.39666666666666</v>
+        <v>12.40916666666666</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11168,7 +11236,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11190,10 +11262,10 @@
         <v>12.13</v>
       </c>
       <c r="F309" t="n">
-        <v>6734.1292</v>
+        <v>4655.4886</v>
       </c>
       <c r="G309" t="n">
-        <v>12.38466666666666</v>
+        <v>12.39666666666666</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11203,7 +11275,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11225,10 +11301,10 @@
         <v>12.13</v>
       </c>
       <c r="F310" t="n">
-        <v>6697.4912</v>
+        <v>6734.1292</v>
       </c>
       <c r="G310" t="n">
-        <v>12.37516666666665</v>
+        <v>12.38466666666666</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11238,7 +11314,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11248,22 +11328,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="C311" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="D311" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="E311" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="F311" t="n">
-        <v>150775.2263</v>
+        <v>6697.4912</v>
       </c>
       <c r="G311" t="n">
-        <v>12.36449999999999</v>
+        <v>12.37516666666665</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11273,7 +11353,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11283,22 +11367,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12.06</v>
+        <v>12.12</v>
       </c>
       <c r="C312" t="n">
-        <v>12.04</v>
+        <v>12.12</v>
       </c>
       <c r="D312" t="n">
-        <v>12.06</v>
+        <v>12.12</v>
       </c>
       <c r="E312" t="n">
-        <v>12.04</v>
+        <v>12.12</v>
       </c>
       <c r="F312" t="n">
-        <v>122168.2023</v>
+        <v>150775.2263</v>
       </c>
       <c r="G312" t="n">
-        <v>12.35349999999999</v>
+        <v>12.36449999999999</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11308,7 +11392,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11318,22 +11406,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="C313" t="n">
         <v>12.04</v>
       </c>
       <c r="D313" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E313" t="n">
         <v>12.04</v>
       </c>
       <c r="F313" t="n">
-        <v>101944.6482</v>
+        <v>122168.2023</v>
       </c>
       <c r="G313" t="n">
-        <v>12.34149999999999</v>
+        <v>12.35349999999999</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11343,7 +11431,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11353,36 +11445,36 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="C314" t="n">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="D314" t="n">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E314" t="n">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="F314" t="n">
-        <v>129945.0939</v>
+        <v>101944.6482</v>
       </c>
       <c r="G314" t="n">
-        <v>12.32933333333332</v>
+        <v>12.34149999999999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K314" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="L314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11392,22 +11484,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="C315" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="D315" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="E315" t="n">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="F315" t="n">
-        <v>91203.39599999999</v>
+        <v>129945.0939</v>
       </c>
       <c r="G315" t="n">
-        <v>12.31699999999999</v>
+        <v>12.32933333333332</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11416,12 +11508,10 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>12.04</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M315" t="n">
@@ -11433,22 +11523,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="C316" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="D316" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="E316" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="F316" t="n">
-        <v>21893.7832</v>
+        <v>91203.39599999999</v>
       </c>
       <c r="G316" t="n">
-        <v>12.30866666666665</v>
+        <v>12.31699999999999</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11457,12 +11547,10 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>12.04</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M316" t="n">
@@ -11474,36 +11562,36 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>12.4</v>
+        <v>12.11</v>
       </c>
       <c r="C317" t="n">
-        <v>12.4</v>
+        <v>12.11</v>
       </c>
       <c r="D317" t="n">
-        <v>12.4</v>
+        <v>12.11</v>
       </c>
       <c r="E317" t="n">
-        <v>12.4</v>
+        <v>12.11</v>
       </c>
       <c r="F317" t="n">
-        <v>1000</v>
+        <v>21893.7832</v>
       </c>
       <c r="G317" t="n">
-        <v>12.30533333333332</v>
+        <v>12.30866666666665</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K317" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="L317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11513,38 +11601,34 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="C318" t="n">
-        <v>12.06</v>
+        <v>12.4</v>
       </c>
       <c r="D318" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E318" t="n">
-        <v>12.06</v>
+        <v>12.4</v>
       </c>
       <c r="F318" t="n">
-        <v>77818.2466</v>
+        <v>1000</v>
       </c>
       <c r="G318" t="n">
-        <v>12.29766666666665</v>
+        <v>12.30533333333332</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K318" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M318" t="n">
@@ -11556,22 +11640,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>12.06</v>
+        <v>12.1</v>
       </c>
       <c r="C319" t="n">
         <v>12.06</v>
       </c>
       <c r="D319" t="n">
-        <v>12.06</v>
+        <v>12.1</v>
       </c>
       <c r="E319" t="n">
         <v>12.06</v>
       </c>
       <c r="F319" t="n">
-        <v>13275.3257</v>
+        <v>77818.2466</v>
       </c>
       <c r="G319" t="n">
-        <v>12.29016666666665</v>
+        <v>12.29766666666665</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11580,9 +11664,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,10 +11691,10 @@
         <v>12.06</v>
       </c>
       <c r="F320" t="n">
-        <v>2482.338308457711</v>
+        <v>13275.3257</v>
       </c>
       <c r="G320" t="n">
-        <v>12.28099999999998</v>
+        <v>12.29016666666665</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11621,9 +11703,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11638,22 +11718,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="C321" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D321" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E321" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="F321" t="n">
-        <v>1091.822</v>
+        <v>2482.338308457711</v>
       </c>
       <c r="G321" t="n">
-        <v>12.27166666666665</v>
+        <v>12.28099999999998</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11662,9 +11742,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11691,10 +11769,10 @@
         <v>12.05</v>
       </c>
       <c r="F322" t="n">
-        <v>86217.11259999999</v>
+        <v>1091.822</v>
       </c>
       <c r="G322" t="n">
-        <v>12.26416666666665</v>
+        <v>12.27166666666665</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11703,9 +11781,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>12.11</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,6 +11791,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C323" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D323" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F323" t="n">
+        <v>86217.11259999999</v>
+      </c>
+      <c r="G323" t="n">
+        <v>12.26416666666665</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest TRV.xlsx
+++ b/BackTest/2020-01-23 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1670361.744269523</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1702642.343069523</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1702478.343069523</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1698478.343069523</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1698782.343069523</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2052199.927669523</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2860,14 +2860,10 @@
         <v>-2551027.504869524</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2897,19 +2893,11 @@
         <v>-2509177.187869524</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2938,19 +2926,11 @@
         <v>-2509135.189069524</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +3784,7 @@
         <v>-1854507.495069524</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3837,7 +3817,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3870,7 +3850,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3883,7 @@
         <v>-1857672.330369524</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3936,7 +3916,7 @@
         <v>-1844753.495069524</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3969,7 +3949,7 @@
         <v>-1844794.495069524</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4002,7 +3982,7 @@
         <v>-1846765.495069524</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4015,7 @@
         <v>-1846810.495069524</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4048,7 @@
         <v>-1846856.495069524</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4081,7 @@
         <v>-1846812.050469524</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4134,7 +4114,7 @@
         <v>-1847150.495069524</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4147,7 @@
         <v>-1855189.390469524</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4365,7 +4345,7 @@
         <v>-1855414.106569524</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4398,7 +4378,7 @@
         <v>-1855498.106569524</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4431,7 +4411,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4464,7 +4444,7 @@
         <v>-1947715.270569524</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4497,7 +4477,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4530,7 +4510,7 @@
         <v>-1947799.270569524</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4563,7 +4543,7 @@
         <v>-2039274.149369524</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4662,7 +4642,7 @@
         <v>-2042625.149369524</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4695,7 +4675,7 @@
         <v>-2033891.669869524</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4728,7 +4708,7 @@
         <v>-2034125.656269524</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4761,7 +4741,7 @@
         <v>-2033918.656269524</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4794,7 +4774,7 @@
         <v>-2034140.656269524</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4827,7 +4807,7 @@
         <v>-2034753.190369525</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4860,7 +4840,7 @@
         <v>-2034713.190369525</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4893,7 +4873,7 @@
         <v>-2035344.190369525</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4926,7 +4906,7 @@
         <v>-2018760.190369525</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4959,7 +4939,7 @@
         <v>-2018802.190369525</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4992,7 +4972,7 @@
         <v>-2018802.190369525</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5025,7 +5005,7 @@
         <v>-2019484.220269524</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5058,7 +5038,7 @@
         <v>-2019484.220269524</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5091,7 +5071,7 @@
         <v>-2016684.220269524</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5124,7 +5104,7 @@
         <v>-2028564.788969524</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5157,7 +5137,7 @@
         <v>-2028564.788969524</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5190,7 +5170,7 @@
         <v>-2028606.788969524</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5223,7 +5203,7 @@
         <v>-2028945.788969524</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5256,7 +5236,7 @@
         <v>-2028742.788969524</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -10470,7 +10450,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10503,7 +10483,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10536,7 +10516,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10569,7 +10549,7 @@
         <v>-1816372.463769524</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10602,7 +10582,7 @@
         <v>-1874028.400615014</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10635,7 +10615,7 @@
         <v>-1599051.207415014</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10668,7 +10648,7 @@
         <v>-1619334.207415014</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10701,7 +10681,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10734,7 +10714,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12417,14 +12397,10 @@
         <v>-2206125.826115014</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J364" t="n">
-        <v>12.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -12457,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12493,19 +12463,11 @@
         <v>-2191125.826115014</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J366" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12567,14 +12529,10 @@
         <v>-2191125.826115014</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J368" t="n">
-        <v>12.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
@@ -12604,347 +12562,303 @@
         <v>-2191125.826115014</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J369" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K369" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C370" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D370" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E370" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F370" t="n">
+        <v>150775.2263</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-2341901.052415014</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C371" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D371" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E371" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F371" t="n">
+        <v>122168.2023</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-2464069.254715014</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C372" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D372" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E372" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F372" t="n">
+        <v>101944.6482</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-2464069.254715014</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C373" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D373" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E373" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F373" t="n">
+        <v>129945.0939</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-2594014.348615014</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C374" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D374" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E374" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F374" t="n">
+        <v>91203.39599999999</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-2685217.744615015</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J374" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F375" t="n">
+        <v>21893.7832</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-2663323.961415015</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J375" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K375" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C370" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D370" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E370" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F370" t="n">
-        <v>150775.2263</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-2341901.052415014</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="J370" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K370" t="inlineStr">
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-2662323.961415015</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J376" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K376" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C377" t="n">
         <v>12.06</v>
       </c>
-      <c r="C371" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D371" t="n">
+      <c r="D377" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E377" t="n">
         <v>12.06</v>
       </c>
-      <c r="E371" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F371" t="n">
-        <v>122168.2023</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-2464069.254715014</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J371" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K371" t="inlineStr">
+      <c r="F377" t="n">
+        <v>77818.2466</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-2740142.208015015</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J377" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K377" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C372" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D372" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E372" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F372" t="n">
-        <v>101944.6482</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-2464069.254715014</v>
-      </c>
-      <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J372" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C373" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D373" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E373" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F373" t="n">
-        <v>129945.0939</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-2594014.348615014</v>
-      </c>
-      <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J373" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C374" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D374" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E374" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F374" t="n">
-        <v>91203.39599999999</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-2685217.744615015</v>
-      </c>
-      <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J374" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F375" t="n">
-        <v>21893.7832</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-2663323.961415015</v>
-      </c>
-      <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J375" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-2662323.961415015</v>
-      </c>
-      <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J376" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C377" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E377" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F377" t="n">
-        <v>77818.2466</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-2740142.208015015</v>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J377" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12973,13 +12887,13 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>12.06</v>
       </c>
       <c r="J378" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13014,11 +12928,13 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>12.06</v>
+      </c>
       <c r="J379" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13053,11 +12969,13 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>12.06</v>
+      </c>
       <c r="J380" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13092,13 +13010,13 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>12.05</v>
       </c>
       <c r="J381" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13133,13 +13051,13 @@
         <v>-2701558.032543249</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>12.05</v>
       </c>
       <c r="J382" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13174,13 +13092,13 @@
         <v>-2701609.032543249</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>12.29</v>
       </c>
       <c r="J383" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13215,13 +13133,13 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>12.24</v>
       </c>
       <c r="J384" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13256,13 +13174,13 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>12.1</v>
       </c>
       <c r="J385" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13297,13 +13215,13 @@
         <v>-2959343.376943249</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>12.1</v>
       </c>
       <c r="J386" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13338,13 +13256,13 @@
         <v>-2959302.576943249</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>12.11</v>
       </c>
       <c r="J387" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13379,13 +13297,13 @@
         <v>-2981633.576943249</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>12.27</v>
       </c>
       <c r="J388" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13420,11 +13338,13 @@
         <v>-2964821.459643249</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J389" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13459,11 +13379,13 @@
         <v>-2964771.459643249</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>12.12</v>
+      </c>
       <c r="J390" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13498,11 +13420,13 @@
         <v>-3024774.17914325</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J391" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13515,6 +13439,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TRV.xlsx
+++ b/BackTest/2020-01-23 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1670361.744269523</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1702642.343069523</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1702478.343069523</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1698478.343069523</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1698782.343069523</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2052199.927669523</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2530,10 +2530,14 @@
         <v>-2512219.103769524</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12.11</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2563,11 +2567,19 @@
         <v>-2512174.337069524</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2608,19 @@
         <v>-2512174.337069524</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2649,19 @@
         <v>-2511854.337069524</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2690,19 @@
         <v>-2507444.337069524</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2731,19 @@
         <v>-2507570.337069524</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2772,19 @@
         <v>-2508996.445769524</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2813,19 @@
         <v>-2508952.001169524</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2854,19 @@
         <v>-2538502.056069524</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2895,19 @@
         <v>-2551027.504869524</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2936,19 @@
         <v>-2551027.504869524</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J75" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2977,19 @@
         <v>-2509177.187869524</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3018,19 @@
         <v>-2509135.189069524</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="J77" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3059,19 @@
         <v>-2386905.349969524</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,13 +3490,19 @@
         <v>-1877469.726869524</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>1.035462427745665</v>
       </c>
       <c r="M89" t="inlineStr"/>
     </row>
@@ -3355,7 +3529,7 @@
         <v>-1877469.726869524</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3562,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3595,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3628,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3661,7 @@
         <v>-1876684.782069524</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3694,7 @@
         <v>-1877033.826869524</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3727,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3760,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3793,7 @@
         <v>-1877161.826869524</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3826,7 @@
         <v>-1877203.826869524</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3859,7 @@
         <v>-1895323.707969524</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3892,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3925,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3883,7 +4057,7 @@
         <v>-1857672.330369524</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4090,7 @@
         <v>-1844753.495069524</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4123,7 @@
         <v>-1844794.495069524</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4156,7 @@
         <v>-1846765.495069524</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4189,7 @@
         <v>-1846810.495069524</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4222,7 @@
         <v>-1846856.495069524</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4255,7 @@
         <v>-1846812.050469524</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4288,7 @@
         <v>-1847150.495069524</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4321,7 @@
         <v>-1855189.390469524</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4354,7 @@
         <v>-1855189.390469524</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4387,7 @@
         <v>-1856086.106569524</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4345,7 +4519,7 @@
         <v>-1855414.106569524</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4552,7 @@
         <v>-1855498.106569524</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4585,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4651,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4684,7 @@
         <v>-1947799.270569524</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4717,7 @@
         <v>-2039274.149369524</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -7381,7 +7555,7 @@
         <v>-2026891.673269524</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7588,7 @@
         <v>-2026546.671169524</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7621,7 @@
         <v>-2030946.671169524</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8107,10 +8281,14 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J234" t="n">
+        <v>12.25</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
@@ -8140,11 +8318,19 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="J235" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8359,19 @@
         <v>-2414763.081069524</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="J236" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9526,10 +9720,14 @@
         <v>-3268367.102269524</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J277" t="n">
+        <v>12.23</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
@@ -9559,11 +9757,19 @@
         <v>-3268495.549669524</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J278" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9798,19 @@
         <v>-3356618.369369524</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="J279" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9658,10 +9872,14 @@
         <v>-3344318.450169524</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J281" t="n">
+        <v>12.25</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
@@ -9691,11 +9909,19 @@
         <v>-3283701.811769524</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J282" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9953,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,10 +9989,14 @@
         <v>-3265169.027469524</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J284" t="n">
+        <v>12.25</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
@@ -9790,11 +10026,19 @@
         <v>-3265169.027469524</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="J285" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10070,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,10 +10106,14 @@
         <v>-3254639.027469524</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="J287" t="n">
+        <v>12.31</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9889,11 +10143,19 @@
         <v>-3254598.027469524</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="J288" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10187,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10252,7 +10520,7 @@
         <v>-2621172.827369524</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10318,7 +10586,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10619,7 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10652,7 @@
         <v>-2151498.780324033</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10685,7 @@
         <v>-1991093.331069524</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10718,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10751,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10784,7 @@
         <v>-1816292.012069524</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10817,7 @@
         <v>-1816372.463769524</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10850,7 @@
         <v>-1874028.400615014</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10883,7 @@
         <v>-1599051.207415014</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10916,7 @@
         <v>-1619334.207415014</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10949,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10982,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11015,7 @@
         <v>-1553414.698215014</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11048,7 @@
         <v>-1555065.105815014</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11081,7 @@
         <v>-1598386.834215014</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11114,7 @@
         <v>-1625390.131915014</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11147,7 @@
         <v>-1656195.339215014</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11180,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11213,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11246,7 @@
         <v>-1765881.438715014</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11279,7 @@
         <v>-1764881.438715014</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11312,7 @@
         <v>-1766790.566815014</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11345,7 @@
         <v>-1812008.810115014</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11378,7 @@
         <v>-1812008.810115014</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11411,7 @@
         <v>-1811968.457815014</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11444,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11477,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11510,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11543,7 @@
         <v>-1841987.343515014</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11576,7 @@
         <v>-1816148.645515014</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12694,10 +12962,14 @@
         <v>-2594014.348615014</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="J373" t="n">
+        <v>12.04</v>
+      </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12733,9 +13005,13 @@
         <v>12.03</v>
       </c>
       <c r="J374" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K374" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12770,7 +13046,7 @@
         <v>12.02</v>
       </c>
       <c r="J375" t="n">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12811,13 +13087,9 @@
         <v>12.11</v>
       </c>
       <c r="J376" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>12.11</v>
+      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12846,13 +13118,11 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -12887,13 +13157,11 @@
         <v>-2740142.208015015</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -12934,7 +13202,7 @@
         <v>12.06</v>
       </c>
       <c r="J379" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -12969,13 +13237,11 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13010,13 +13276,11 @@
         <v>-2741234.030015015</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>12.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13057,7 +13321,7 @@
         <v>12.05</v>
       </c>
       <c r="J382" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13098,7 +13362,7 @@
         <v>12.29</v>
       </c>
       <c r="J383" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13133,13 +13397,11 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>12.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13174,13 +13436,11 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13215,13 +13475,11 @@
         <v>-2959343.376943249</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13256,13 +13514,11 @@
         <v>-2959302.576943249</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
         <v>12.11</v>
-      </c>
-      <c r="J387" t="n">
-        <v>12.03</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13297,13 +13553,11 @@
         <v>-2981633.576943249</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>12.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13338,13 +13592,11 @@
         <v>-2964821.459643249</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13379,13 +13631,11 @@
         <v>-2964771.459643249</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>12.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13420,13 +13670,11 @@
         <v>-3024774.17914325</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>12.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13439,6 +13687,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest TRV.xlsx
+++ b/BackTest/2020-01-23 BackTest TRV.xlsx
@@ -2530,14 +2530,10 @@
         <v>-2512219.103769524</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2567,347 +2563,291 @@
         <v>-2512174.337069524</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100.2419</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2512174.337069524</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F68" t="n">
+        <v>320</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2511854.337069524</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4410</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-2507444.337069524</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F70" t="n">
+        <v>126</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2507570.337069524</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C71" t="n">
         <v>12.12</v>
       </c>
-      <c r="J66" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K66" t="inlineStr">
+      <c r="D71" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1426.1087</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-2508996.445769524</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F72" t="n">
+        <v>44.4446</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2508952.001169524</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F73" t="n">
+        <v>29550.0549</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2538502.056069524</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F67" t="n">
-        <v>100.2419</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-2512174.337069524</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12525.4488</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2551027.504869524</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F68" t="n">
-        <v>320</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2511854.337069524</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J68" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4410</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-2507444.337069524</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F70" t="n">
-        <v>126</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-2507570.337069524</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="J70" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1426.1087</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-2508996.445769524</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F72" t="n">
-        <v>44.4446</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-2508952.001169524</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F73" t="n">
-        <v>29550.0549</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2538502.056069524</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="F74" t="n">
-        <v>12525.4488</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-2551027.504869524</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2942,13 +2882,9 @@
         <v>12.13</v>
       </c>
       <c r="J75" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.13</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2919,11 @@
         <v>12.13</v>
       </c>
       <c r="J76" t="n">
-        <v>12.11</v>
+        <v>12.13</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3024,11 +2960,11 @@
         <v>12.39</v>
       </c>
       <c r="J77" t="n">
-        <v>12.11</v>
+        <v>12.13</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3059,19 +2995,11 @@
         <v>-2386905.349969524</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +3031,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +3064,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +3097,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +3130,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3259,14 +3163,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3298,14 +3196,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +3229,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3493,16 +3361,10 @@
         <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.035462427745665</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
     </row>
@@ -3562,7 +3424,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3595,7 +3457,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3628,7 +3490,7 @@
         <v>-1877549.726869524</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3661,7 +3523,7 @@
         <v>-1876684.782069524</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3694,7 +3556,7 @@
         <v>-1877033.826869524</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3727,7 +3589,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3760,7 +3622,7 @@
         <v>-1877081.826869524</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3793,7 +3655,7 @@
         <v>-1877161.826869524</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3826,7 +3688,7 @@
         <v>-1877203.826869524</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3859,7 +3721,7 @@
         <v>-1895323.707969524</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3892,7 +3754,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3925,7 +3787,7 @@
         <v>-1853507.495069524</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3991,7 +3853,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4024,7 +3886,7 @@
         <v>-1853855.495069524</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4090,7 +3952,7 @@
         <v>-1844753.495069524</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4354,7 +4216,7 @@
         <v>-1855189.390469524</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4387,7 +4249,7 @@
         <v>-1856086.106569524</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4519,7 +4381,7 @@
         <v>-1855414.106569524</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4552,7 +4414,7 @@
         <v>-1855498.106569524</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4585,7 +4447,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4651,7 +4513,7 @@
         <v>-1947757.270569524</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4684,7 +4546,7 @@
         <v>-1947799.270569524</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4750,7 +4612,7 @@
         <v>-2042499.149369524</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4816,7 +4678,7 @@
         <v>-2042625.149369524</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4849,7 +4711,7 @@
         <v>-2033891.669869524</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4882,7 +4744,7 @@
         <v>-2034125.656269524</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4915,7 +4777,7 @@
         <v>-2033918.656269524</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4948,7 +4810,7 @@
         <v>-2034140.656269524</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -7555,7 +7417,7 @@
         <v>-2026891.673269524</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7588,7 +7450,7 @@
         <v>-2026546.671169524</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7621,7 +7483,7 @@
         <v>-2030946.671169524</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8281,14 +8143,10 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J234" t="n">
-        <v>12.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
@@ -8318,19 +8176,11 @@
         <v>-2648749.665269524</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="J235" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8359,19 +8209,11 @@
         <v>-2414763.081069524</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="J236" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9654,11 +9496,17 @@
         <v>-3277918.148869524</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>12.23</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9687,11 +9535,17 @@
         <v>-3268408.102269524</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>12.22</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9725,10 +9579,12 @@
       <c r="I277" t="n">
         <v>12.23</v>
       </c>
-      <c r="J277" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9762,12 +9618,10 @@
       <c r="I278" t="n">
         <v>12.3</v>
       </c>
-      <c r="J278" t="n">
-        <v>12.23</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -9803,12 +9657,10 @@
       <c r="I279" t="n">
         <v>12.26</v>
       </c>
-      <c r="J279" t="n">
-        <v>12.23</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9839,11 +9691,17 @@
         <v>-3356618.369369524</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>12.25</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9877,10 +9735,12 @@
       <c r="I281" t="n">
         <v>12.25</v>
       </c>
-      <c r="J281" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9914,12 +9774,10 @@
       <c r="I282" t="n">
         <v>12.3</v>
       </c>
-      <c r="J282" t="n">
-        <v>12.25</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9950,15 +9808,15 @@
         <v>-3283801.811769524</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>12.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L283" t="n">
@@ -9994,10 +9852,12 @@
       <c r="I284" t="n">
         <v>12.25</v>
       </c>
-      <c r="J284" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10031,12 +9891,10 @@
       <c r="I285" t="n">
         <v>12.45</v>
       </c>
-      <c r="J285" t="n">
-        <v>12.25</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -10067,15 +9925,15 @@
         <v>-3284639.027469524</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>12.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L286" t="n">
@@ -10111,10 +9969,12 @@
       <c r="I287" t="n">
         <v>12.31</v>
       </c>
-      <c r="J287" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10148,12 +10008,10 @@
       <c r="I288" t="n">
         <v>12.32</v>
       </c>
-      <c r="J288" t="n">
-        <v>12.31</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -10184,15 +10042,15 @@
         <v>-3254598.027469524</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>12.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -10223,11 +10081,17 @@
         <v>-3254598.027469524</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>12.42</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +10120,17 @@
         <v>-3070974.768069524</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>12.42</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10289,11 +10159,17 @@
         <v>-3070933.768069524</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>12.48</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10322,11 +10198,17 @@
         <v>-3070933.768069524</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>12.49</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +10237,17 @@
         <v>-3006758.077769524</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>12.49</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10392,7 +10280,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10425,7 +10317,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10458,7 +10354,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10487,11 +10387,17 @@
         <v>-2614589.439469524</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>12.62</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +10426,17 @@
         <v>-2621172.827369524</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>12.67</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10553,11 +10465,17 @@
         <v>-2256625.929669524</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>12.51</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +10504,15 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10619,11 +10541,15 @@
         <v>-2152998.300869524</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10652,11 +10578,15 @@
         <v>-2151498.780324033</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10685,11 +10615,15 @@
         <v>-1991093.331069524</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10722,10 +10656,12 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
@@ -11180,7 +11116,7 @@
         <v>-1656145.339215014</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11411,7 +11347,7 @@
         <v>-1811968.457815014</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11444,7 +11380,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11510,7 +11446,7 @@
         <v>-1827163.074015014</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11543,7 +11479,7 @@
         <v>-1841987.343515014</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11576,7 +11512,7 @@
         <v>-1816148.645515014</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11807,7 +11743,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11840,7 +11776,7 @@
         <v>-1443471.845615014</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11873,7 +11809,7 @@
         <v>-1523962.888415014</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11939,7 +11875,7 @@
         <v>-1516678.138015014</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12962,14 +12898,10 @@
         <v>-2594014.348615014</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="J373" t="n">
-        <v>12.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12999,335 +12931,295 @@
         <v>-2685217.744615015</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J374" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K374" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E375" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F375" t="n">
+        <v>21893.7832</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-2663323.961415015</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E376" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-2662323.961415015</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C377" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D377" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E377" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F377" t="n">
+        <v>77818.2466</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-2740142.208015015</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C378" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D378" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E378" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F378" t="n">
+        <v>13275.3257</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-2740142.208015015</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C379" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D379" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E379" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2482.338308457711</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-2740142.208015015</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C380" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D380" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E380" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1091.822</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-2741234.030015015</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="J380" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C381" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D381" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E381" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F381" t="n">
+        <v>86217.11259999999</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-2741234.030015015</v>
+      </c>
+      <c r="H381" t="n">
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J381" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="K381" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E375" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F375" t="n">
-        <v>21893.7832</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-2663323.961415015</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J375" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E376" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-2662323.961415015</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J376" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C377" t="n">
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C382" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="D382" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E382" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F382" t="n">
+        <v>39675.99747176567</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-2701558.032543249</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J382" t="n">
         <v>12.06</v>
       </c>
-      <c r="D377" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E377" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F377" t="n">
-        <v>77818.2466</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-2740142.208015015</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K377" t="inlineStr">
+      <c r="K382" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C378" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D378" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E378" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F378" t="n">
-        <v>13275.3257</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-2740142.208015015</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="C379" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D379" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="E379" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F379" t="n">
-        <v>2482.338308457711</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-2740142.208015015</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J379" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C380" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D380" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E380" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F380" t="n">
-        <v>1091.822</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-2741234.030015015</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C381" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D381" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E381" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F381" t="n">
-        <v>86217.11259999999</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-2741234.030015015</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C382" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="D382" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="E382" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F382" t="n">
-        <v>39675.99747176567</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-2701558.032543249</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J382" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13362,7 +13254,7 @@
         <v>12.29</v>
       </c>
       <c r="J383" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13397,11 +13289,13 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>12.24</v>
+      </c>
       <c r="J384" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13436,11 +13330,13 @@
         <v>-2961866.485243249</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J385" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13475,11 +13371,13 @@
         <v>-2959343.376943249</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J386" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13514,11 +13412,13 @@
         <v>-2959302.576943249</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>12.11</v>
+      </c>
       <c r="J387" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13553,11 +13453,13 @@
         <v>-2981633.576943249</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>12.27</v>
+      </c>
       <c r="J388" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13592,11 +13494,13 @@
         <v>-2964821.459643249</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>12.1</v>
+      </c>
       <c r="J389" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13631,11 +13535,13 @@
         <v>-2964771.459643249</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>12.12</v>
+      </c>
       <c r="J390" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13670,11 +13576,13 @@
         <v>-3024774.17914325</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J391" t="n">
-        <v>12.11</v>
+        <v>12.06</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
